--- a/Max_Hewitt_Gantt.xlsx
+++ b/Max_Hewitt_Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moxhe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moxhe\Documents\GitHub\HTCS-5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907CCA10-F2B3-4B07-B940-B44A46E90127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94217199-915D-4A86-BE51-0B2AB2E06FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="198">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -483,15 +483,6 @@
   </si>
   <si>
     <t>Creating Task Dependencies</t>
-  </si>
-  <si>
-    <t>[Task Category]</t>
-  </si>
-  <si>
-    <t>[Task]</t>
-  </si>
-  <si>
-    <t>[Name]</t>
   </si>
   <si>
     <t>Changing the Color of the Bars in the Gantt Chart</t>
@@ -1488,9 +1479,6 @@
     </r>
   </si>
   <si>
-    <t>[Sub-task]</t>
-  </si>
-  <si>
     <t>Method 2 will work, but Excel will split/fracture/duplicate conditional formatting rules rather than merging the rules. This can cause inefficiencies in very large and heavily modified files.</t>
   </si>
   <si>
@@ -1557,9 +1545,6 @@
     <t>Selecting Tools</t>
   </si>
   <si>
-    <t>Establishing Project Management System</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Create milestones</t>
   </si>
   <si>
@@ -1570,6 +1555,156 @@
   </si>
   <si>
     <t xml:space="preserve">    Allocate Time</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Gather Requirements</t>
+  </si>
+  <si>
+    <t>Technology Review</t>
+  </si>
+  <si>
+    <t>Start Technical Report</t>
+  </si>
+  <si>
+    <t>Setup Risk Issues Assessment</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Datebase</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Setting up PMS (GItHub)</t>
+  </si>
+  <si>
+    <t>Design Business Case Narratives</t>
+  </si>
+  <si>
+    <t>Design Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Design Use Case Narratvies</t>
+  </si>
+  <si>
+    <t>Add Buyer (9)</t>
+  </si>
+  <si>
+    <t>Update Buyer (10)</t>
+  </si>
+  <si>
+    <t>Delete Buyer (11)</t>
+  </si>
+  <si>
+    <t>Produce Buyers Report</t>
+  </si>
+  <si>
+    <t>Produce Buyers Report (12)</t>
+  </si>
+  <si>
+    <t>Assign Buyer Suburb</t>
+  </si>
+  <si>
+    <t>Remove Buyer Suburb (14)</t>
+  </si>
+  <si>
+    <t>Assign Buyer Category (15)</t>
+  </si>
+  <si>
+    <t>Remove Buyer Category (16)</t>
+  </si>
+  <si>
+    <t>Assign Buyer Suburb (13)</t>
+  </si>
+  <si>
+    <t>Design Activity Diagrams</t>
+  </si>
+  <si>
+    <t>Design Sequence Diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Annotated UI </t>
+  </si>
+  <si>
+    <t>Design Database</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>Design Class Diagram</t>
+  </si>
+  <si>
+    <t>Design Deployment Diagram</t>
+  </si>
+  <si>
+    <t>Design Test Plan</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Develop Database</t>
+  </si>
+  <si>
+    <t>Test Database</t>
+  </si>
+  <si>
+    <t>Create UI</t>
+  </si>
+  <si>
+    <t>Create Datacontroller</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Add Buyer</t>
+  </si>
+  <si>
+    <t>Update Buyer</t>
+  </si>
+  <si>
+    <t>Delete Buyer</t>
+  </si>
+  <si>
+    <t>Remove Buyer Suburb</t>
+  </si>
+  <si>
+    <t>Assign Buyer Category</t>
+  </si>
+  <si>
+    <t>Remove Buyer Category</t>
+  </si>
+  <si>
+    <t>Code Use Cases</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Create Training Materials</t>
+  </si>
+  <si>
+    <t>Create Deployment Diagram</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Finish Technical Report</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1717,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2043,8 +2178,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2181,6 +2323,24 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD6F4D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2518,7 +2678,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2834,9 +2994,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2921,23 +3078,14 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2946,17 +3094,65 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="47" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="24" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="54" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3006,7 +3202,955 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="108">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3787,11 +4931,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN44"/>
+  <dimension ref="A1:BN74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3818,30 +4962,30 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
-      <c r="I1" s="131"/>
-      <c r="K1" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
+      <c r="I1" s="130"/>
+      <c r="K1" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
@@ -3850,8 +4994,8 @@
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="33"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
@@ -3884,198 +5028,198 @@
     <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="109"/>
       <c r="B4" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="171">
+        <v>76</v>
+      </c>
+      <c r="C4" s="170">
         <v>44459</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="128">
+        <v>75</v>
+      </c>
+      <c r="H4" s="127">
         <v>1</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="163" t="str">
+      <c r="K4" s="167" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="163" t="str">
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="167" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="163" t="str">
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="169"/>
+      <c r="Y4" s="167" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="164"/>
-      <c r="AA4" s="164"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="163" t="str">
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="167" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="164"/>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="165"/>
-      <c r="AM4" s="163" t="str">
+      <c r="AG4" s="168"/>
+      <c r="AH4" s="168"/>
+      <c r="AI4" s="168"/>
+      <c r="AJ4" s="168"/>
+      <c r="AK4" s="168"/>
+      <c r="AL4" s="169"/>
+      <c r="AM4" s="167" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="164"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="165"/>
-      <c r="AT4" s="163" t="str">
+      <c r="AN4" s="168"/>
+      <c r="AO4" s="168"/>
+      <c r="AP4" s="168"/>
+      <c r="AQ4" s="168"/>
+      <c r="AR4" s="168"/>
+      <c r="AS4" s="169"/>
+      <c r="AT4" s="167" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="164"/>
-      <c r="AZ4" s="165"/>
-      <c r="BA4" s="163" t="str">
+      <c r="AU4" s="168"/>
+      <c r="AV4" s="168"/>
+      <c r="AW4" s="168"/>
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="169"/>
+      <c r="BA4" s="167" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="164"/>
-      <c r="BC4" s="164"/>
-      <c r="BD4" s="164"/>
-      <c r="BE4" s="164"/>
-      <c r="BF4" s="164"/>
-      <c r="BG4" s="165"/>
-      <c r="BH4" s="163" t="str">
+      <c r="BB4" s="168"/>
+      <c r="BC4" s="168"/>
+      <c r="BD4" s="168"/>
+      <c r="BE4" s="168"/>
+      <c r="BF4" s="168"/>
+      <c r="BG4" s="169"/>
+      <c r="BH4" s="167" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="164"/>
-      <c r="BJ4" s="164"/>
-      <c r="BK4" s="164"/>
-      <c r="BL4" s="164"/>
-      <c r="BM4" s="164"/>
-      <c r="BN4" s="165"/>
+      <c r="BI4" s="168"/>
+      <c r="BJ4" s="168"/>
+      <c r="BK4" s="168"/>
+      <c r="BL4" s="168"/>
+      <c r="BM4" s="168"/>
+      <c r="BN4" s="169"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="170" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+        <v>77</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="166">
+      <c r="K5" s="171">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="166">
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="171">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="166">
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="171">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="166">
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="171">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="166">
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="172"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="171">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="166">
+      <c r="AN5" s="172"/>
+      <c r="AO5" s="172"/>
+      <c r="AP5" s="172"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="172"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="171">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="172"/>
+      <c r="AV5" s="172"/>
+      <c r="AW5" s="172"/>
+      <c r="AX5" s="172"/>
+      <c r="AY5" s="172"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="171">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="167"/>
-      <c r="BE5" s="167"/>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="168"/>
-      <c r="BH5" s="166">
+      <c r="BB5" s="172"/>
+      <c r="BC5" s="172"/>
+      <c r="BD5" s="172"/>
+      <c r="BE5" s="172"/>
+      <c r="BF5" s="172"/>
+      <c r="BG5" s="173"/>
+      <c r="BH5" s="171">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="167"/>
-      <c r="BJ5" s="167"/>
-      <c r="BK5" s="167"/>
-      <c r="BL5" s="167"/>
-      <c r="BM5" s="167"/>
-      <c r="BN5" s="168"/>
+      <c r="BI5" s="172"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="172"/>
+      <c r="BN5" s="173"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
@@ -4318,28 +5462,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="G7" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="119" t="s">
+      <c r="H7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="I7" s="117" t="s">
         <v>73</v>
-      </c>
-      <c r="G7" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="117" t="s">
-        <v>76</v>
       </c>
       <c r="J7" s="117"/>
       <c r="K7" s="120" t="str">
@@ -4573,9 +5717,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="85"/>
+        <v>139</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>148</v>
+      </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87">
         <v>44459</v>
@@ -4589,7 +5735,7 @@
       </c>
       <c r="H8" s="89"/>
       <c r="I8" s="90">
-        <f t="shared" ref="I8:I37" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I67" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v>5</v>
       </c>
       <c r="J8" s="93"/>
@@ -4655,27 +5801,24 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="173" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>12</v>
+      <c r="B9" s="162" t="s">
+        <v>142</v>
       </c>
       <c r="D9" s="126"/>
       <c r="E9" s="99">
-        <v>43129</v>
+        <v>44459</v>
       </c>
       <c r="F9" s="100">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43133</v>
+        <v>44461</v>
       </c>
       <c r="G9" s="61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="62"/>
       <c r="I9" s="63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="106"/>
@@ -4740,19 +5883,19 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
-      <c r="B10" s="174" t="s">
-        <v>149</v>
+      <c r="B10" s="163" t="s">
+        <v>144</v>
       </c>
       <c r="D10" s="126"/>
       <c r="E10" s="99">
-        <v>43134</v>
+        <v>44459</v>
       </c>
       <c r="F10" s="100">
-        <f t="shared" ref="F10:F35" si="5">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>43138</v>
+        <f t="shared" ref="F10:F62" si="5">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <v>44461</v>
       </c>
       <c r="G10" s="61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="62">
         <v>0</v>
@@ -4824,26 +5967,26 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.2</v>
       </c>
-      <c r="B11" s="174" t="s">
-        <v>150</v>
+      <c r="B11" s="163" t="s">
+        <v>145</v>
       </c>
       <c r="D11" s="126"/>
       <c r="E11" s="99">
-        <v>43139</v>
+        <v>44459</v>
       </c>
       <c r="F11" s="100">
         <f t="shared" si="5"/>
-        <v>43142</v>
+        <v>44461</v>
       </c>
       <c r="G11" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="62">
         <v>0</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="94"/>
       <c r="K11" s="106"/>
@@ -4908,26 +6051,26 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.3</v>
       </c>
-      <c r="B12" s="174" t="s">
-        <v>151</v>
+      <c r="B12" s="163" t="s">
+        <v>146</v>
       </c>
       <c r="D12" s="126"/>
       <c r="E12" s="99">
-        <v>43132</v>
+        <v>44459</v>
       </c>
       <c r="F12" s="100">
         <f t="shared" si="5"/>
-        <v>43135</v>
+        <v>44461</v>
       </c>
       <c r="G12" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="62">
         <v>0</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="106"/>
@@ -4989,29 +6132,29 @@
     </row>
     <row r="13" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",5))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.4</v>
       </c>
-      <c r="B13" s="174" t="s">
-        <v>152</v>
+      <c r="B13" s="163" t="s">
+        <v>147</v>
       </c>
       <c r="D13" s="126"/>
       <c r="E13" s="99">
-        <v>43133</v>
+        <v>44459</v>
       </c>
       <c r="F13" s="100">
         <f t="shared" si="5"/>
-        <v>43134</v>
+        <v>44461</v>
       </c>
       <c r="G13" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="62">
         <v>0</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="106"/>
@@ -5073,29 +6216,29 @@
     </row>
     <row r="14" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>137</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>149</v>
       </c>
       <c r="D14" s="126"/>
       <c r="E14" s="99">
-        <v>43135</v>
+        <v>44461</v>
       </c>
       <c r="F14" s="100">
         <f t="shared" si="5"/>
-        <v>43137</v>
+        <v>44461</v>
       </c>
       <c r="G14" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="62">
         <v>0</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="106"/>
@@ -5157,29 +6300,29 @@
     </row>
     <row r="15" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="str">
-        <f t="shared" ref="A9:A17" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.6</v>
+        <f t="shared" ref="A15:A16" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.3</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D15" s="126"/>
       <c r="E15" s="99">
-        <v>43136</v>
+        <v>44462</v>
       </c>
       <c r="F15" s="100">
         <f t="shared" si="5"/>
-        <v>43140</v>
+        <v>44463</v>
       </c>
       <c r="G15" s="61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="62">
         <v>0</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="106"/>
@@ -5242,28 +6385,28 @@
     <row r="16" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="str">
         <f t="shared" si="6"/>
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="D16" s="126"/>
       <c r="E16" s="99">
-        <v>43134</v>
+        <v>44464</v>
       </c>
       <c r="F16" s="100">
         <f t="shared" si="5"/>
-        <v>43140</v>
+        <v>44465</v>
       </c>
       <c r="G16" s="61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="62">
         <v>0</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="106"/>
@@ -5323,193 +6466,193 @@
       <c r="BM16" s="106"/>
       <c r="BN16" s="106"/>
     </row>
-    <row r="17" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="str">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-      <c r="B17" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="99">
-        <v>43141</v>
-      </c>
-      <c r="F17" s="100">
-        <f t="shared" si="5"/>
-        <v>43147</v>
-      </c>
-      <c r="G17" s="61">
-        <v>7</v>
-      </c>
-      <c r="H17" s="62">
-        <v>0</v>
-      </c>
-      <c r="I17" s="63">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
-      <c r="AY17" s="106"/>
-      <c r="AZ17" s="106"/>
-      <c r="BA17" s="106"/>
-      <c r="BB17" s="106"/>
-      <c r="BC17" s="106"/>
-      <c r="BD17" s="106"/>
-      <c r="BE17" s="106"/>
-      <c r="BF17" s="106"/>
-      <c r="BG17" s="106"/>
-      <c r="BH17" s="106"/>
-      <c r="BI17" s="106"/>
-      <c r="BJ17" s="106"/>
-      <c r="BK17" s="106"/>
-      <c r="BL17" s="106"/>
-      <c r="BM17" s="106"/>
-      <c r="BN17" s="106"/>
-    </row>
-    <row r="18" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="str">
+    <row r="17" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101" t="str">
+      <c r="B17" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58" t="str">
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="108"/>
-      <c r="AJ18" s="108"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="108"/>
-      <c r="AM18" s="108"/>
-      <c r="AN18" s="108"/>
-      <c r="AO18" s="108"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="108"/>
-      <c r="AR18" s="108"/>
-      <c r="AS18" s="108"/>
-      <c r="AT18" s="108"/>
-      <c r="AU18" s="108"/>
-      <c r="AV18" s="108"/>
-      <c r="AW18" s="108"/>
-      <c r="AX18" s="108"/>
-      <c r="AY18" s="108"/>
-      <c r="AZ18" s="108"/>
-      <c r="BA18" s="108"/>
-      <c r="BB18" s="108"/>
-      <c r="BC18" s="108"/>
-      <c r="BD18" s="108"/>
-      <c r="BE18" s="108"/>
-      <c r="BF18" s="108"/>
-      <c r="BG18" s="108"/>
-      <c r="BH18" s="108"/>
-      <c r="BI18" s="108"/>
-      <c r="BJ18" s="108"/>
-      <c r="BK18" s="108"/>
-      <c r="BL18" s="108"/>
-      <c r="BM18" s="108"/>
-      <c r="BN18" s="108"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="108"/>
+      <c r="AP17" s="108"/>
+      <c r="AQ17" s="108"/>
+      <c r="AR17" s="108"/>
+      <c r="AS17" s="108"/>
+      <c r="AT17" s="108"/>
+      <c r="AU17" s="108"/>
+      <c r="AV17" s="108"/>
+      <c r="AW17" s="108"/>
+      <c r="AX17" s="108"/>
+      <c r="AY17" s="108"/>
+      <c r="AZ17" s="108"/>
+      <c r="BA17" s="108"/>
+      <c r="BB17" s="108"/>
+      <c r="BC17" s="108"/>
+      <c r="BD17" s="108"/>
+      <c r="BE17" s="108"/>
+      <c r="BF17" s="108"/>
+      <c r="BG17" s="108"/>
+      <c r="BH17" s="108"/>
+      <c r="BI17" s="108"/>
+      <c r="BJ17" s="108"/>
+      <c r="BK17" s="108"/>
+      <c r="BL17" s="108"/>
+      <c r="BM17" s="108"/>
+      <c r="BN17" s="108"/>
+    </row>
+    <row r="18" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18" s="99">
+        <v>44466</v>
+      </c>
+      <c r="F18" s="100">
+        <f t="shared" si="5"/>
+        <v>44467</v>
+      </c>
+      <c r="G18" s="61">
+        <v>2</v>
+      </c>
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="106"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="106"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="106"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+      <c r="AY18" s="106"/>
+      <c r="AZ18" s="106"/>
+      <c r="BA18" s="106"/>
+      <c r="BB18" s="106"/>
+      <c r="BC18" s="106"/>
+      <c r="BD18" s="106"/>
+      <c r="BE18" s="106"/>
+      <c r="BF18" s="106"/>
+      <c r="BG18" s="106"/>
+      <c r="BH18" s="106"/>
+      <c r="BI18" s="106"/>
+      <c r="BJ18" s="106"/>
+      <c r="BK18" s="106"/>
+      <c r="BL18" s="106"/>
+      <c r="BM18" s="106"/>
+      <c r="BN18" s="106"/>
     </row>
     <row r="19" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D19" s="126"/>
       <c r="E19" s="99">
-        <v>43141</v>
+        <v>44468</v>
       </c>
       <c r="F19" s="100">
-        <f t="shared" si="5"/>
-        <v>43144</v>
+        <f>IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>44470</v>
       </c>
       <c r="G19" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="62">
         <v>0</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <v>3</v>
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="106"/>
@@ -5571,29 +6714,27 @@
     </row>
     <row r="20" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B20" s="125" t="s">
-        <v>147</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.1</v>
+      </c>
+      <c r="B20" s="164" t="s">
+        <v>153</v>
       </c>
       <c r="D20" s="126"/>
       <c r="E20" s="99">
-        <v>43145</v>
+        <v>44468</v>
       </c>
       <c r="F20" s="100">
-        <f t="shared" si="5"/>
-        <v>43147</v>
+        <f>IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>44469</v>
       </c>
       <c r="G20" s="61">
-        <v>3</v>
-      </c>
-      <c r="H20" s="62">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="62"/>
       <c r="I20" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <v>2</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="106"/>
@@ -5653,31 +6794,29 @@
       <c r="BM20" s="106"/>
       <c r="BN20" s="106"/>
     </row>
-    <row r="21" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B21" s="125" t="s">
-        <v>148</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.2</v>
+      </c>
+      <c r="B21" s="164" t="s">
+        <v>154</v>
       </c>
       <c r="D21" s="126"/>
       <c r="E21" s="99">
-        <v>43145</v>
+        <v>44470</v>
       </c>
       <c r="F21" s="100">
-        <f t="shared" si="5"/>
-        <v>43147</v>
+        <f>IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>44470</v>
       </c>
       <c r="G21" s="61">
-        <v>3</v>
-      </c>
-      <c r="H21" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H21" s="62"/>
       <c r="I21" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <v>1</v>
       </c>
       <c r="J21" s="94"/>
       <c r="K21" s="106"/>
@@ -5739,29 +6878,27 @@
     </row>
     <row r="22" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B22" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.3</v>
+      </c>
+      <c r="B22" s="164" t="s">
+        <v>155</v>
       </c>
       <c r="D22" s="126"/>
       <c r="E22" s="99">
-        <v>43148</v>
+        <v>44471</v>
       </c>
       <c r="F22" s="100">
-        <f t="shared" si="5"/>
-        <v>43153</v>
+        <f>IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
+        <v>44471</v>
       </c>
       <c r="G22" s="61">
-        <v>6</v>
-      </c>
-      <c r="H22" s="62">
+        <v>1</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63">
+        <f>IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
         <v>0</v>
-      </c>
-      <c r="I22" s="63">
-        <f t="shared" si="4"/>
-        <v>4</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="106"/>
@@ -5824,28 +6961,28 @@
     <row r="23" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="D23" s="126"/>
       <c r="E23" s="99">
-        <v>43154</v>
+        <v>44472</v>
       </c>
       <c r="F23" s="100">
-        <f t="shared" si="5"/>
-        <v>43156</v>
+        <f>IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <v>44472</v>
       </c>
       <c r="G23" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="62">
         <v>0</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="106"/>
@@ -5911,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="101"/>
@@ -5983,31 +7120,29 @@
       <c r="BM24" s="108"/>
       <c r="BN24" s="108"/>
     </row>
-    <row r="25" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="99">
-        <v>43141</v>
+        <v>44473</v>
       </c>
       <c r="F25" s="100">
-        <f t="shared" si="5"/>
-        <v>43144</v>
+        <f>IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>44473</v>
       </c>
       <c r="G25" s="61">
-        <v>4</v>
-      </c>
-      <c r="H25" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H25" s="62"/>
       <c r="I25" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>IF(OR(F25=0,E25=0)," - ",NETWORKDAYS(E25,F25))</f>
+        <v>1</v>
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="106"/>
@@ -6067,31 +7202,31 @@
       <c r="BM25" s="106"/>
       <c r="BN25" s="106"/>
     </row>
-    <row r="26" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D26" s="126"/>
       <c r="E26" s="99">
-        <v>43145</v>
+        <v>44474</v>
       </c>
       <c r="F26" s="100">
         <f t="shared" si="5"/>
-        <v>43147</v>
+        <v>44474</v>
       </c>
       <c r="G26" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="62">
         <v>0</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="106"/>
@@ -6151,31 +7286,31 @@
       <c r="BM26" s="106"/>
       <c r="BN26" s="106"/>
     </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="60" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="D27" s="126"/>
       <c r="E27" s="99">
-        <v>43145</v>
+        <v>44475</v>
       </c>
       <c r="F27" s="100">
-        <f t="shared" si="5"/>
-        <v>43147</v>
+        <f>IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>44476</v>
       </c>
       <c r="G27" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="62">
         <v>0</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="106"/>
@@ -6195,7 +7330,7 @@
       <c r="Y27" s="106"/>
       <c r="Z27" s="106"/>
       <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
+      <c r="AB27" s="176"/>
       <c r="AC27" s="106"/>
       <c r="AD27" s="106"/>
       <c r="AE27" s="106"/>
@@ -6237,29 +7372,27 @@
     </row>
     <row r="28" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B28" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B28" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="D28" s="126"/>
       <c r="E28" s="99">
-        <v>43148</v>
+        <v>44475</v>
       </c>
       <c r="F28" s="100">
-        <f t="shared" si="5"/>
-        <v>43153</v>
+        <f>IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>44475</v>
       </c>
       <c r="G28" s="61">
-        <v>6</v>
-      </c>
-      <c r="H28" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H28" s="62"/>
       <c r="I28" s="63">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(OR(F28=0,E28=0)," - ",NETWORKDAYS(E28,F28))</f>
+        <v>1</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="106"/>
@@ -6321,28 +7454,26 @@
     </row>
     <row r="29" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B29" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.2</v>
+      </c>
+      <c r="B29" s="164" t="s">
+        <v>161</v>
       </c>
       <c r="D29" s="126"/>
       <c r="E29" s="99">
-        <v>43154</v>
+        <v>44475</v>
       </c>
       <c r="F29" s="100">
-        <f t="shared" si="5"/>
-        <v>43156</v>
+        <f>IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <v>44475</v>
       </c>
       <c r="G29" s="61">
-        <v>3</v>
-      </c>
-      <c r="H29" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H29" s="62"/>
       <c r="I29" s="63">
-        <f t="shared" si="4"/>
+        <f>IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
         <v>1</v>
       </c>
       <c r="J29" s="94"/>
@@ -6403,99 +7534,103 @@
       <c r="BM29" s="106"/>
       <c r="BN29" s="106"/>
     </row>
-    <row r="30" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J30" s="95"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="108"/>
-      <c r="AB30" s="108"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="108"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="108"/>
-      <c r="AJ30" s="108"/>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="108"/>
-      <c r="AM30" s="108"/>
-      <c r="AN30" s="108"/>
-      <c r="AO30" s="108"/>
-      <c r="AP30" s="108"/>
-      <c r="AQ30" s="108"/>
-      <c r="AR30" s="108"/>
-      <c r="AS30" s="108"/>
-      <c r="AT30" s="108"/>
-      <c r="AU30" s="108"/>
-      <c r="AV30" s="108"/>
-      <c r="AW30" s="108"/>
-      <c r="AX30" s="108"/>
-      <c r="AY30" s="108"/>
-      <c r="AZ30" s="108"/>
-      <c r="BA30" s="108"/>
-      <c r="BB30" s="108"/>
-      <c r="BC30" s="108"/>
-      <c r="BD30" s="108"/>
-      <c r="BE30" s="108"/>
-      <c r="BF30" s="108"/>
-      <c r="BG30" s="108"/>
-      <c r="BH30" s="108"/>
-      <c r="BI30" s="108"/>
-      <c r="BJ30" s="108"/>
-      <c r="BK30" s="108"/>
-      <c r="BL30" s="108"/>
-      <c r="BM30" s="108"/>
-      <c r="BN30" s="108"/>
+    <row r="30" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.3</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="126"/>
+      <c r="E30" s="99">
+        <v>44475</v>
+      </c>
+      <c r="F30" s="100">
+        <f>IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
+        <v>44475</v>
+      </c>
+      <c r="G30" s="61">
+        <v>1</v>
+      </c>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63">
+        <f>IF(OR(F30=0,E30=0)," - ",NETWORKDAYS(E30,F30))</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="94"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="106"/>
+      <c r="AK30" s="106"/>
+      <c r="AL30" s="106"/>
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="106"/>
+      <c r="AO30" s="106"/>
+      <c r="AP30" s="106"/>
+      <c r="AQ30" s="106"/>
+      <c r="AR30" s="106"/>
+      <c r="AS30" s="106"/>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="106"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="106"/>
+      <c r="AY30" s="106"/>
+      <c r="AZ30" s="106"/>
+      <c r="BA30" s="106"/>
+      <c r="BB30" s="106"/>
+      <c r="BC30" s="106"/>
+      <c r="BD30" s="106"/>
+      <c r="BE30" s="106"/>
+      <c r="BF30" s="106"/>
+      <c r="BG30" s="106"/>
+      <c r="BH30" s="106"/>
+      <c r="BI30" s="106"/>
+      <c r="BJ30" s="106"/>
+      <c r="BK30" s="106"/>
+      <c r="BL30" s="106"/>
+      <c r="BM30" s="106"/>
+      <c r="BN30" s="106"/>
     </row>
     <row r="31" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B31" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",5))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.4</v>
+      </c>
+      <c r="B31" s="175" t="s">
+        <v>164</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="99">
-        <v>43129</v>
+        <v>44475</v>
       </c>
       <c r="F31" s="100">
-        <f t="shared" si="5"/>
-        <v>43129</v>
+        <f t="shared" ref="F31:F34" si="7">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>44475</v>
       </c>
       <c r="G31" s="61">
         <v>1</v>
@@ -6504,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I31:I34" si="8">IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
         <v>1</v>
       </c>
       <c r="J31" s="94"/>
@@ -6567,19 +7702,19 @@
     </row>
     <row r="32" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B32" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",5))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.5</v>
+      </c>
+      <c r="B32" s="175" t="s">
+        <v>169</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="99">
-        <v>43130</v>
+        <v>44476</v>
       </c>
       <c r="F32" s="100">
-        <f t="shared" si="5"/>
-        <v>43130</v>
+        <f t="shared" si="7"/>
+        <v>44476</v>
       </c>
       <c r="G32" s="61">
         <v>1</v>
@@ -6588,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J32" s="94"/>
@@ -6651,19 +7786,19 @@
     </row>
     <row r="33" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B33" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",5))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.6</v>
+      </c>
+      <c r="B33" s="175" t="s">
+        <v>166</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="99">
-        <v>43131</v>
+        <v>44476</v>
       </c>
       <c r="F33" s="100">
-        <f t="shared" si="5"/>
-        <v>43131</v>
+        <f t="shared" si="7"/>
+        <v>44476</v>
       </c>
       <c r="G33" s="61">
         <v>1</v>
@@ -6672,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J33" s="94"/>
@@ -6735,19 +7870,19 @@
     </row>
     <row r="34" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B34" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",5))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.7</v>
+      </c>
+      <c r="B34" s="175" t="s">
+        <v>167</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="99">
-        <v>43132</v>
+        <v>44476</v>
       </c>
       <c r="F34" s="100">
-        <f t="shared" si="5"/>
-        <v>43132</v>
+        <f t="shared" si="7"/>
+        <v>44476</v>
       </c>
       <c r="G34" s="61">
         <v>1</v>
@@ -6756,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J34" s="94"/>
@@ -6819,19 +7954,19 @@
     </row>
     <row r="35" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B35" s="125" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",5))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.8</v>
+      </c>
+      <c r="B35" s="175" t="s">
+        <v>168</v>
       </c>
       <c r="D35" s="126"/>
       <c r="E35" s="99">
-        <v>43133</v>
+        <v>44476</v>
       </c>
       <c r="F35" s="100">
-        <f t="shared" si="5"/>
-        <v>43133</v>
+        <f t="shared" ref="F35" si="9">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>44476</v>
       </c>
       <c r="G35" s="61">
         <v>1</v>
@@ -6840,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I35" si="10">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
       <c r="J35" s="94"/>
@@ -6901,20 +8036,31 @@
       <c r="BM35" s="106"/>
       <c r="BN35" s="106"/>
     </row>
-    <row r="36" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J36" s="96"/>
+    <row r="36" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B36" s="162" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="126"/>
+      <c r="E36" s="99">
+        <v>44477</v>
+      </c>
+      <c r="F36" s="100">
+        <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v>44478</v>
+      </c>
+      <c r="G36" s="61">
+        <v>2</v>
+      </c>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63">
+        <f>IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="94"/>
       <c r="K36" s="106"/>
       <c r="L36" s="106"/>
       <c r="M36" s="106"/>
@@ -6972,20 +8118,31 @@
       <c r="BM36" s="106"/>
       <c r="BN36" s="106"/>
     </row>
-    <row r="37" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J37" s="96"/>
+    <row r="37" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B37" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="126"/>
+      <c r="E37" s="99">
+        <v>44479</v>
+      </c>
+      <c r="F37" s="100">
+        <f>IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>44481</v>
+      </c>
+      <c r="G37" s="61">
+        <v>3</v>
+      </c>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63">
+        <f>IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <v>2</v>
+      </c>
+      <c r="J37" s="94"/>
       <c r="K37" s="106"/>
       <c r="L37" s="106"/>
       <c r="M37" s="106"/>
@@ -7043,19 +8200,31 @@
       <c r="BM37" s="106"/>
       <c r="BN37" s="106"/>
     </row>
-    <row r="38" spans="1:66" s="74" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B38" s="162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="126"/>
+      <c r="E38" s="99">
+        <v>44482</v>
+      </c>
+      <c r="F38" s="100">
+        <f>IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <v>44484</v>
+      </c>
+      <c r="G38" s="61">
         <v>3</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="97"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63">
+        <f>IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
+        <v>3</v>
+      </c>
+      <c r="J38" s="94"/>
       <c r="K38" s="106"/>
       <c r="L38" s="106"/>
       <c r="M38" s="106"/>
@@ -7113,19 +8282,31 @@
       <c r="BM38" s="106"/>
       <c r="BN38" s="106"/>
     </row>
-    <row r="39" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="97"/>
+    <row r="39" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.7</v>
+      </c>
+      <c r="B39" s="162" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="126"/>
+      <c r="E39" s="99">
+        <v>44485</v>
+      </c>
+      <c r="F39" s="100">
+        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44485</v>
+      </c>
+      <c r="G39" s="61">
+        <v>1</v>
+      </c>
+      <c r="H39" s="62"/>
+      <c r="I39" s="63">
+        <f>IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="94"/>
       <c r="K39" s="106"/>
       <c r="L39" s="106"/>
       <c r="M39" s="106"/>
@@ -7183,28 +8364,31 @@
       <c r="BM39" s="106"/>
       <c r="BN39" s="106"/>
     </row>
-    <row r="40" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A40" s="129" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="40" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.7.1</v>
+      </c>
+      <c r="B40" s="164" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="126"/>
+      <c r="E40" s="99">
+        <v>44485</v>
+      </c>
+      <c r="F40" s="100">
+        <f>IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>44485</v>
+      </c>
+      <c r="G40" s="61">
         <v>1</v>
       </c>
-      <c r="B40" s="130" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="100" t="str">
-        <f t="shared" ref="F40:F43" si="7">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="61"/>
       <c r="H40" s="62"/>
-      <c r="I40" s="79" t="str">
+      <c r="I40" s="63">
         <f>IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="98"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="94"/>
       <c r="K40" s="106"/>
       <c r="L40" s="106"/>
       <c r="M40" s="106"/>
@@ -7262,28 +8446,31 @@
       <c r="BM40" s="106"/>
       <c r="BN40" s="106"/>
     </row>
-    <row r="41" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="61"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.7.2</v>
+      </c>
+      <c r="B41" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="126"/>
+      <c r="E41" s="99">
+        <v>44485</v>
+      </c>
+      <c r="F41" s="100">
+        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <v>44485</v>
+      </c>
+      <c r="G41" s="61">
+        <v>1</v>
+      </c>
       <c r="H41" s="62"/>
-      <c r="I41" s="79" t="str">
-        <f t="shared" ref="I41:I43" si="8">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="98"/>
+      <c r="I41" s="63">
+        <f>IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="94"/>
       <c r="K41" s="106"/>
       <c r="L41" s="106"/>
       <c r="M41" s="106"/>
@@ -7341,28 +8528,31 @@
       <c r="BM41" s="106"/>
       <c r="BN41" s="106"/>
     </row>
-    <row r="42" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B42" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="61"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.8</v>
+      </c>
+      <c r="B42" s="162" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="126"/>
+      <c r="E42" s="99">
+        <v>44486</v>
+      </c>
+      <c r="F42" s="100">
+        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>44486</v>
+      </c>
+      <c r="G42" s="61">
+        <v>1</v>
+      </c>
       <c r="H42" s="62"/>
-      <c r="I42" s="79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J42" s="98"/>
+      <c r="I42" s="63">
+        <f>IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="94"/>
       <c r="K42" s="106"/>
       <c r="L42" s="106"/>
       <c r="M42" s="106"/>
@@ -7420,28 +8610,31 @@
       <c r="BM42" s="106"/>
       <c r="BN42" s="106"/>
     </row>
-    <row r="43" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B43" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G43" s="61"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.9</v>
+      </c>
+      <c r="B43" s="162" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="126"/>
+      <c r="E43" s="99">
+        <v>44486</v>
+      </c>
+      <c r="F43" s="100">
+        <f>IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <v>44486</v>
+      </c>
+      <c r="G43" s="61">
+        <v>1</v>
+      </c>
       <c r="H43" s="62"/>
-      <c r="I43" s="79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J43" s="98"/>
+      <c r="I43" s="63">
+        <f>IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="94"/>
       <c r="K43" s="106"/>
       <c r="L43" s="106"/>
       <c r="M43" s="106"/>
@@ -7499,89 +8692,2499 @@
       <c r="BM43" s="106"/>
       <c r="BN43" s="106"/>
     </row>
-    <row r="44" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="162" t="str">
+    <row r="44" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.10</v>
+      </c>
+      <c r="B44" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="126"/>
+      <c r="E44" s="99">
+        <v>44487</v>
+      </c>
+      <c r="F44" s="100">
+        <f>IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <v>44488</v>
+      </c>
+      <c r="G44" s="61">
+        <v>2</v>
+      </c>
+      <c r="H44" s="62"/>
+      <c r="I44" s="63">
+        <f>IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
+        <v>2</v>
+      </c>
+      <c r="J44" s="94"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="106"/>
+      <c r="AI44" s="106"/>
+      <c r="AJ44" s="106"/>
+      <c r="AK44" s="106"/>
+      <c r="AL44" s="106"/>
+      <c r="AM44" s="106"/>
+      <c r="AN44" s="106"/>
+      <c r="AO44" s="106"/>
+      <c r="AP44" s="106"/>
+      <c r="AQ44" s="106"/>
+      <c r="AR44" s="106"/>
+      <c r="AS44" s="106"/>
+      <c r="AT44" s="106"/>
+      <c r="AU44" s="106"/>
+      <c r="AV44" s="106"/>
+      <c r="AW44" s="106"/>
+      <c r="AX44" s="106"/>
+      <c r="AY44" s="106"/>
+      <c r="AZ44" s="106"/>
+      <c r="BA44" s="106"/>
+      <c r="BB44" s="106"/>
+      <c r="BC44" s="106"/>
+      <c r="BD44" s="106"/>
+      <c r="BE44" s="106"/>
+      <c r="BF44" s="106"/>
+      <c r="BG44" s="106"/>
+      <c r="BH44" s="106"/>
+      <c r="BI44" s="106"/>
+      <c r="BJ44" s="106"/>
+      <c r="BK44" s="106"/>
+      <c r="BL44" s="106"/>
+      <c r="BM44" s="106"/>
+      <c r="BN44" s="106"/>
+    </row>
+    <row r="45" spans="1:66" s="54" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="55"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J45" s="95"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="108"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="108"/>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="108"/>
+      <c r="AG45" s="108"/>
+      <c r="AH45" s="108"/>
+      <c r="AI45" s="108"/>
+      <c r="AJ45" s="108"/>
+      <c r="AK45" s="108"/>
+      <c r="AL45" s="108"/>
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="108"/>
+      <c r="AO45" s="108"/>
+      <c r="AP45" s="108"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="108"/>
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="108"/>
+      <c r="AW45" s="108"/>
+      <c r="AX45" s="108"/>
+      <c r="AY45" s="108"/>
+      <c r="AZ45" s="108"/>
+      <c r="BA45" s="108"/>
+      <c r="BB45" s="108"/>
+      <c r="BC45" s="108"/>
+      <c r="BD45" s="108"/>
+      <c r="BE45" s="108"/>
+      <c r="BF45" s="108"/>
+      <c r="BG45" s="108"/>
+      <c r="BH45" s="108"/>
+      <c r="BI45" s="108"/>
+      <c r="BJ45" s="108"/>
+      <c r="BK45" s="108"/>
+      <c r="BL45" s="108"/>
+      <c r="BM45" s="108"/>
+      <c r="BN45" s="108"/>
+    </row>
+    <row r="46" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B46" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="126"/>
+      <c r="E46" s="99">
+        <v>44489</v>
+      </c>
+      <c r="F46" s="100">
+        <f t="shared" si="5"/>
+        <v>44490</v>
+      </c>
+      <c r="G46" s="61">
+        <v>2</v>
+      </c>
+      <c r="H46" s="62">
+        <v>0</v>
+      </c>
+      <c r="I46" s="63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J46" s="94"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="106"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="106"/>
+      <c r="S46" s="106"/>
+      <c r="T46" s="106"/>
+      <c r="U46" s="106"/>
+      <c r="V46" s="106"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="106"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="106"/>
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="106"/>
+      <c r="AF46" s="106"/>
+      <c r="AG46" s="106"/>
+      <c r="AH46" s="106"/>
+      <c r="AI46" s="106"/>
+      <c r="AJ46" s="106"/>
+      <c r="AK46" s="106"/>
+      <c r="AL46" s="106"/>
+      <c r="AM46" s="106"/>
+      <c r="AN46" s="106"/>
+      <c r="AO46" s="106"/>
+      <c r="AP46" s="106"/>
+      <c r="AQ46" s="106"/>
+      <c r="AR46" s="106"/>
+      <c r="AS46" s="106"/>
+      <c r="AT46" s="106"/>
+      <c r="AU46" s="106"/>
+      <c r="AV46" s="106"/>
+      <c r="AW46" s="106"/>
+      <c r="AX46" s="106"/>
+      <c r="AY46" s="106"/>
+      <c r="AZ46" s="106"/>
+      <c r="BA46" s="106"/>
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="106"/>
+      <c r="BD46" s="106"/>
+      <c r="BE46" s="106"/>
+      <c r="BF46" s="106"/>
+      <c r="BG46" s="106"/>
+      <c r="BH46" s="106"/>
+      <c r="BI46" s="106"/>
+      <c r="BJ46" s="106"/>
+      <c r="BK46" s="106"/>
+      <c r="BL46" s="106"/>
+      <c r="BM46" s="106"/>
+      <c r="BN46" s="106"/>
+    </row>
+    <row r="47" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.1</v>
+      </c>
+      <c r="B47" s="177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="99">
+        <v>44490</v>
+      </c>
+      <c r="F47" s="100">
+        <f t="shared" si="5"/>
+        <v>44490</v>
+      </c>
+      <c r="G47" s="61">
+        <v>1</v>
+      </c>
+      <c r="H47" s="62"/>
+      <c r="I47" s="79">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="98"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="106"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="106"/>
+      <c r="R47" s="106"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="106"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="106"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="106"/>
+      <c r="AE47" s="106"/>
+      <c r="AF47" s="106"/>
+      <c r="AG47" s="106"/>
+      <c r="AH47" s="106"/>
+      <c r="AI47" s="106"/>
+      <c r="AJ47" s="106"/>
+      <c r="AK47" s="106"/>
+      <c r="AL47" s="106"/>
+      <c r="AM47" s="106"/>
+      <c r="AN47" s="106"/>
+      <c r="AO47" s="106"/>
+      <c r="AP47" s="106"/>
+      <c r="AQ47" s="106"/>
+      <c r="AR47" s="106"/>
+      <c r="AS47" s="106"/>
+      <c r="AT47" s="106"/>
+      <c r="AU47" s="106"/>
+      <c r="AV47" s="106"/>
+      <c r="AW47" s="106"/>
+      <c r="AX47" s="106"/>
+      <c r="AY47" s="106"/>
+      <c r="AZ47" s="106"/>
+      <c r="BA47" s="106"/>
+      <c r="BB47" s="106"/>
+      <c r="BC47" s="106"/>
+      <c r="BD47" s="106"/>
+      <c r="BE47" s="106"/>
+      <c r="BF47" s="106"/>
+      <c r="BG47" s="106"/>
+      <c r="BH47" s="106"/>
+      <c r="BI47" s="106"/>
+      <c r="BJ47" s="106"/>
+      <c r="BK47" s="106"/>
+      <c r="BL47" s="106"/>
+      <c r="BM47" s="106"/>
+      <c r="BN47" s="106"/>
+    </row>
+    <row r="48" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B48" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="126"/>
+      <c r="E48" s="99">
+        <v>44491</v>
+      </c>
+      <c r="F48" s="100">
+        <f t="shared" ref="F48" si="11">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44491</v>
+      </c>
+      <c r="G48" s="61">
+        <v>1</v>
+      </c>
+      <c r="H48" s="62">
+        <v>0</v>
+      </c>
+      <c r="I48" s="63">
+        <f t="shared" ref="I48" si="12">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="94"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="106"/>
+      <c r="P48" s="106"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="106"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="106"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="106"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="106"/>
+      <c r="AB48" s="106"/>
+      <c r="AC48" s="106"/>
+      <c r="AD48" s="106"/>
+      <c r="AE48" s="106"/>
+      <c r="AF48" s="106"/>
+      <c r="AG48" s="106"/>
+      <c r="AH48" s="106"/>
+      <c r="AI48" s="106"/>
+      <c r="AJ48" s="106"/>
+      <c r="AK48" s="106"/>
+      <c r="AL48" s="106"/>
+      <c r="AM48" s="106"/>
+      <c r="AN48" s="106"/>
+      <c r="AO48" s="106"/>
+      <c r="AP48" s="106"/>
+      <c r="AQ48" s="106"/>
+      <c r="AR48" s="106"/>
+      <c r="AS48" s="106"/>
+      <c r="AT48" s="106"/>
+      <c r="AU48" s="106"/>
+      <c r="AV48" s="106"/>
+      <c r="AW48" s="106"/>
+      <c r="AX48" s="106"/>
+      <c r="AY48" s="106"/>
+      <c r="AZ48" s="106"/>
+      <c r="BA48" s="106"/>
+      <c r="BB48" s="106"/>
+      <c r="BC48" s="106"/>
+      <c r="BD48" s="106"/>
+      <c r="BE48" s="106"/>
+      <c r="BF48" s="106"/>
+      <c r="BG48" s="106"/>
+      <c r="BH48" s="106"/>
+      <c r="BI48" s="106"/>
+      <c r="BJ48" s="106"/>
+      <c r="BK48" s="106"/>
+      <c r="BL48" s="106"/>
+      <c r="BM48" s="106"/>
+      <c r="BN48" s="106"/>
+    </row>
+    <row r="49" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A49" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B49" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="126"/>
+      <c r="E49" s="99">
+        <v>44491</v>
+      </c>
+      <c r="F49" s="100">
+        <f t="shared" si="5"/>
+        <v>44493</v>
+      </c>
+      <c r="G49" s="61">
+        <v>3</v>
+      </c>
+      <c r="H49" s="62">
+        <v>0</v>
+      </c>
+      <c r="I49" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="94"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="106"/>
+      <c r="S49" s="106"/>
+      <c r="T49" s="106"/>
+      <c r="U49" s="106"/>
+      <c r="V49" s="106"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="106"/>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="106"/>
+      <c r="AC49" s="106"/>
+      <c r="AD49" s="106"/>
+      <c r="AE49" s="106"/>
+      <c r="AF49" s="106"/>
+      <c r="AG49" s="106"/>
+      <c r="AH49" s="106"/>
+      <c r="AI49" s="106"/>
+      <c r="AJ49" s="106"/>
+      <c r="AK49" s="106"/>
+      <c r="AL49" s="106"/>
+      <c r="AM49" s="106"/>
+      <c r="AN49" s="106"/>
+      <c r="AO49" s="106"/>
+      <c r="AP49" s="106"/>
+      <c r="AQ49" s="106"/>
+      <c r="AR49" s="106"/>
+      <c r="AS49" s="106"/>
+      <c r="AT49" s="106"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="106"/>
+      <c r="AW49" s="106"/>
+      <c r="AX49" s="106"/>
+      <c r="AY49" s="106"/>
+      <c r="AZ49" s="106"/>
+      <c r="BA49" s="106"/>
+      <c r="BB49" s="106"/>
+      <c r="BC49" s="106"/>
+      <c r="BD49" s="106"/>
+      <c r="BE49" s="106"/>
+      <c r="BF49" s="106"/>
+      <c r="BG49" s="106"/>
+      <c r="BH49" s="106"/>
+      <c r="BI49" s="106"/>
+      <c r="BJ49" s="106"/>
+      <c r="BK49" s="106"/>
+      <c r="BL49" s="106"/>
+      <c r="BM49" s="106"/>
+      <c r="BN49" s="106"/>
+    </row>
+    <row r="50" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.1</v>
+      </c>
+      <c r="B50" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="80"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="99">
+        <v>44491</v>
+      </c>
+      <c r="F50" s="100">
+        <f t="shared" si="5"/>
+        <v>44491</v>
+      </c>
+      <c r="G50" s="61">
+        <v>1</v>
+      </c>
+      <c r="H50" s="62"/>
+      <c r="I50" s="79">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="98"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="106"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="106"/>
+      <c r="R50" s="106"/>
+      <c r="S50" s="106"/>
+      <c r="T50" s="106"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="106"/>
+      <c r="W50" s="106"/>
+      <c r="X50" s="106"/>
+      <c r="Y50" s="106"/>
+      <c r="Z50" s="106"/>
+      <c r="AA50" s="106"/>
+      <c r="AB50" s="106"/>
+      <c r="AC50" s="106"/>
+      <c r="AD50" s="106"/>
+      <c r="AE50" s="106"/>
+      <c r="AF50" s="106"/>
+      <c r="AG50" s="106"/>
+      <c r="AH50" s="106"/>
+      <c r="AI50" s="106"/>
+      <c r="AJ50" s="106"/>
+      <c r="AK50" s="106"/>
+      <c r="AL50" s="106"/>
+      <c r="AM50" s="106"/>
+      <c r="AN50" s="106"/>
+      <c r="AO50" s="106"/>
+      <c r="AP50" s="106"/>
+      <c r="AQ50" s="106"/>
+      <c r="AR50" s="106"/>
+      <c r="AS50" s="106"/>
+      <c r="AT50" s="106"/>
+      <c r="AU50" s="106"/>
+      <c r="AV50" s="106"/>
+      <c r="AW50" s="106"/>
+      <c r="AX50" s="106"/>
+      <c r="AY50" s="106"/>
+      <c r="AZ50" s="106"/>
+      <c r="BA50" s="106"/>
+      <c r="BB50" s="106"/>
+      <c r="BC50" s="106"/>
+      <c r="BD50" s="106"/>
+      <c r="BE50" s="106"/>
+      <c r="BF50" s="106"/>
+      <c r="BG50" s="106"/>
+      <c r="BH50" s="106"/>
+      <c r="BI50" s="106"/>
+      <c r="BJ50" s="106"/>
+      <c r="BK50" s="106"/>
+      <c r="BL50" s="106"/>
+      <c r="BM50" s="106"/>
+      <c r="BN50" s="106"/>
+    </row>
+    <row r="51" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.2</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="80"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="99">
+        <v>44491</v>
+      </c>
+      <c r="F51" s="100">
+        <f t="shared" ref="F51" si="13">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v>44491</v>
+      </c>
+      <c r="G51" s="61">
+        <v>1</v>
+      </c>
+      <c r="H51" s="62"/>
+      <c r="I51" s="79">
+        <f t="shared" ref="I51" si="14">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="98"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="106"/>
+      <c r="U51" s="106"/>
+      <c r="V51" s="106"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="106"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+      <c r="AB51" s="106"/>
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="106"/>
+      <c r="AE51" s="106"/>
+      <c r="AF51" s="106"/>
+      <c r="AG51" s="106"/>
+      <c r="AH51" s="106"/>
+      <c r="AI51" s="106"/>
+      <c r="AJ51" s="106"/>
+      <c r="AK51" s="106"/>
+      <c r="AL51" s="106"/>
+      <c r="AM51" s="106"/>
+      <c r="AN51" s="106"/>
+      <c r="AO51" s="106"/>
+      <c r="AP51" s="106"/>
+      <c r="AQ51" s="106"/>
+      <c r="AR51" s="106"/>
+      <c r="AS51" s="106"/>
+      <c r="AT51" s="106"/>
+      <c r="AU51" s="106"/>
+      <c r="AV51" s="106"/>
+      <c r="AW51" s="106"/>
+      <c r="AX51" s="106"/>
+      <c r="AY51" s="106"/>
+      <c r="AZ51" s="106"/>
+      <c r="BA51" s="106"/>
+      <c r="BB51" s="106"/>
+      <c r="BC51" s="106"/>
+      <c r="BD51" s="106"/>
+      <c r="BE51" s="106"/>
+      <c r="BF51" s="106"/>
+      <c r="BG51" s="106"/>
+      <c r="BH51" s="106"/>
+      <c r="BI51" s="106"/>
+      <c r="BJ51" s="106"/>
+      <c r="BK51" s="106"/>
+      <c r="BL51" s="106"/>
+      <c r="BM51" s="106"/>
+      <c r="BN51" s="106"/>
+    </row>
+    <row r="52" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.3</v>
+      </c>
+      <c r="B52" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="80"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="99">
+        <v>44491</v>
+      </c>
+      <c r="F52" s="100">
+        <f t="shared" ref="F52" si="15">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
+        <v>44491</v>
+      </c>
+      <c r="G52" s="61">
+        <v>1</v>
+      </c>
+      <c r="H52" s="62"/>
+      <c r="I52" s="79">
+        <f t="shared" ref="I52" si="16">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="98"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="106"/>
+      <c r="S52" s="106"/>
+      <c r="T52" s="106"/>
+      <c r="U52" s="106"/>
+      <c r="V52" s="106"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+      <c r="AB52" s="106"/>
+      <c r="AC52" s="106"/>
+      <c r="AD52" s="106"/>
+      <c r="AE52" s="106"/>
+      <c r="AF52" s="106"/>
+      <c r="AG52" s="106"/>
+      <c r="AH52" s="106"/>
+      <c r="AI52" s="106"/>
+      <c r="AJ52" s="106"/>
+      <c r="AK52" s="106"/>
+      <c r="AL52" s="106"/>
+      <c r="AM52" s="106"/>
+      <c r="AN52" s="106"/>
+      <c r="AO52" s="106"/>
+      <c r="AP52" s="106"/>
+      <c r="AQ52" s="106"/>
+      <c r="AR52" s="106"/>
+      <c r="AS52" s="106"/>
+      <c r="AT52" s="106"/>
+      <c r="AU52" s="106"/>
+      <c r="AV52" s="106"/>
+      <c r="AW52" s="106"/>
+      <c r="AX52" s="106"/>
+      <c r="AY52" s="106"/>
+      <c r="AZ52" s="106"/>
+      <c r="BA52" s="106"/>
+      <c r="BB52" s="106"/>
+      <c r="BC52" s="106"/>
+      <c r="BD52" s="106"/>
+      <c r="BE52" s="106"/>
+      <c r="BF52" s="106"/>
+      <c r="BG52" s="106"/>
+      <c r="BH52" s="106"/>
+      <c r="BI52" s="106"/>
+      <c r="BJ52" s="106"/>
+      <c r="BK52" s="106"/>
+      <c r="BL52" s="106"/>
+      <c r="BM52" s="106"/>
+      <c r="BN52" s="106"/>
+    </row>
+    <row r="53" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.4</v>
+      </c>
+      <c r="B53" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="80"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="99">
+        <v>44492</v>
+      </c>
+      <c r="F53" s="100">
+        <f t="shared" ref="F53" si="17">IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
+        <v>44492</v>
+      </c>
+      <c r="G53" s="61">
+        <v>1</v>
+      </c>
+      <c r="H53" s="62"/>
+      <c r="I53" s="79">
+        <f t="shared" ref="I53" si="18">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="98"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="106"/>
+      <c r="S53" s="106"/>
+      <c r="T53" s="106"/>
+      <c r="U53" s="106"/>
+      <c r="V53" s="106"/>
+      <c r="W53" s="106"/>
+      <c r="X53" s="106"/>
+      <c r="Y53" s="106"/>
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="106"/>
+      <c r="AB53" s="106"/>
+      <c r="AC53" s="106"/>
+      <c r="AD53" s="106"/>
+      <c r="AE53" s="106"/>
+      <c r="AF53" s="106"/>
+      <c r="AG53" s="106"/>
+      <c r="AH53" s="106"/>
+      <c r="AI53" s="106"/>
+      <c r="AJ53" s="106"/>
+      <c r="AK53" s="106"/>
+      <c r="AL53" s="106"/>
+      <c r="AM53" s="106"/>
+      <c r="AN53" s="106"/>
+      <c r="AO53" s="106"/>
+      <c r="AP53" s="106"/>
+      <c r="AQ53" s="106"/>
+      <c r="AR53" s="106"/>
+      <c r="AS53" s="106"/>
+      <c r="AT53" s="106"/>
+      <c r="AU53" s="106"/>
+      <c r="AV53" s="106"/>
+      <c r="AW53" s="106"/>
+      <c r="AX53" s="106"/>
+      <c r="AY53" s="106"/>
+      <c r="AZ53" s="106"/>
+      <c r="BA53" s="106"/>
+      <c r="BB53" s="106"/>
+      <c r="BC53" s="106"/>
+      <c r="BD53" s="106"/>
+      <c r="BE53" s="106"/>
+      <c r="BF53" s="106"/>
+      <c r="BG53" s="106"/>
+      <c r="BH53" s="106"/>
+      <c r="BI53" s="106"/>
+      <c r="BJ53" s="106"/>
+      <c r="BK53" s="106"/>
+      <c r="BL53" s="106"/>
+      <c r="BM53" s="106"/>
+      <c r="BN53" s="106"/>
+    </row>
+    <row r="54" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.5</v>
+      </c>
+      <c r="B54" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="99">
+        <v>44492</v>
+      </c>
+      <c r="F54" s="100">
+        <f t="shared" ref="F54" si="19">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
+        <v>44492</v>
+      </c>
+      <c r="G54" s="61">
+        <v>1</v>
+      </c>
+      <c r="H54" s="62"/>
+      <c r="I54" s="79">
+        <f t="shared" ref="I54" si="20">IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="98"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="106"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
+      <c r="AB54" s="106"/>
+      <c r="AC54" s="106"/>
+      <c r="AD54" s="106"/>
+      <c r="AE54" s="106"/>
+      <c r="AF54" s="106"/>
+      <c r="AG54" s="106"/>
+      <c r="AH54" s="106"/>
+      <c r="AI54" s="106"/>
+      <c r="AJ54" s="106"/>
+      <c r="AK54" s="106"/>
+      <c r="AL54" s="106"/>
+      <c r="AM54" s="106"/>
+      <c r="AN54" s="106"/>
+      <c r="AO54" s="106"/>
+      <c r="AP54" s="106"/>
+      <c r="AQ54" s="106"/>
+      <c r="AR54" s="106"/>
+      <c r="AS54" s="106"/>
+      <c r="AT54" s="106"/>
+      <c r="AU54" s="106"/>
+      <c r="AV54" s="106"/>
+      <c r="AW54" s="106"/>
+      <c r="AX54" s="106"/>
+      <c r="AY54" s="106"/>
+      <c r="AZ54" s="106"/>
+      <c r="BA54" s="106"/>
+      <c r="BB54" s="106"/>
+      <c r="BC54" s="106"/>
+      <c r="BD54" s="106"/>
+      <c r="BE54" s="106"/>
+      <c r="BF54" s="106"/>
+      <c r="BG54" s="106"/>
+      <c r="BH54" s="106"/>
+      <c r="BI54" s="106"/>
+      <c r="BJ54" s="106"/>
+      <c r="BK54" s="106"/>
+      <c r="BL54" s="106"/>
+      <c r="BM54" s="106"/>
+      <c r="BN54" s="106"/>
+    </row>
+    <row r="55" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.6</v>
+      </c>
+      <c r="B55" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="99">
+        <v>44492</v>
+      </c>
+      <c r="F55" s="100">
+        <f t="shared" ref="F55" si="21">IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+        <v>44492</v>
+      </c>
+      <c r="G55" s="61">
+        <v>1</v>
+      </c>
+      <c r="H55" s="62"/>
+      <c r="I55" s="79">
+        <f t="shared" ref="I55" si="22">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="98"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="106"/>
+      <c r="R55" s="106"/>
+      <c r="S55" s="106"/>
+      <c r="T55" s="106"/>
+      <c r="U55" s="106"/>
+      <c r="V55" s="106"/>
+      <c r="W55" s="106"/>
+      <c r="X55" s="106"/>
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106"/>
+      <c r="AA55" s="106"/>
+      <c r="AB55" s="106"/>
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106"/>
+      <c r="AE55" s="106"/>
+      <c r="AF55" s="106"/>
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="106"/>
+      <c r="AI55" s="106"/>
+      <c r="AJ55" s="106"/>
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106"/>
+      <c r="AM55" s="106"/>
+      <c r="AN55" s="106"/>
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106"/>
+      <c r="AQ55" s="106"/>
+      <c r="AR55" s="106"/>
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106"/>
+      <c r="AU55" s="106"/>
+      <c r="AV55" s="106"/>
+      <c r="AW55" s="106"/>
+      <c r="AX55" s="106"/>
+      <c r="AY55" s="106"/>
+      <c r="AZ55" s="106"/>
+      <c r="BA55" s="106"/>
+      <c r="BB55" s="106"/>
+      <c r="BC55" s="106"/>
+      <c r="BD55" s="106"/>
+      <c r="BE55" s="106"/>
+      <c r="BF55" s="106"/>
+      <c r="BG55" s="106"/>
+      <c r="BH55" s="106"/>
+      <c r="BI55" s="106"/>
+      <c r="BJ55" s="106"/>
+      <c r="BK55" s="106"/>
+      <c r="BL55" s="106"/>
+      <c r="BM55" s="106"/>
+      <c r="BN55" s="106"/>
+    </row>
+    <row r="56" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.7</v>
+      </c>
+      <c r="B56" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="80"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="99">
+        <v>44493</v>
+      </c>
+      <c r="F56" s="100">
+        <f t="shared" ref="F56" si="23">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
+        <v>44493</v>
+      </c>
+      <c r="G56" s="61">
+        <v>1</v>
+      </c>
+      <c r="H56" s="62"/>
+      <c r="I56" s="79">
+        <f t="shared" ref="I56" si="24">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="98"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="106"/>
+      <c r="O56" s="106"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="106"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="106"/>
+      <c r="U56" s="106"/>
+      <c r="V56" s="106"/>
+      <c r="W56" s="106"/>
+      <c r="X56" s="106"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="106"/>
+      <c r="AC56" s="106"/>
+      <c r="AD56" s="106"/>
+      <c r="AE56" s="106"/>
+      <c r="AF56" s="106"/>
+      <c r="AG56" s="106"/>
+      <c r="AH56" s="106"/>
+      <c r="AI56" s="106"/>
+      <c r="AJ56" s="106"/>
+      <c r="AK56" s="106"/>
+      <c r="AL56" s="106"/>
+      <c r="AM56" s="106"/>
+      <c r="AN56" s="106"/>
+      <c r="AO56" s="106"/>
+      <c r="AP56" s="106"/>
+      <c r="AQ56" s="106"/>
+      <c r="AR56" s="106"/>
+      <c r="AS56" s="106"/>
+      <c r="AT56" s="106"/>
+      <c r="AU56" s="106"/>
+      <c r="AV56" s="106"/>
+      <c r="AW56" s="106"/>
+      <c r="AX56" s="106"/>
+      <c r="AY56" s="106"/>
+      <c r="AZ56" s="106"/>
+      <c r="BA56" s="106"/>
+      <c r="BB56" s="106"/>
+      <c r="BC56" s="106"/>
+      <c r="BD56" s="106"/>
+      <c r="BE56" s="106"/>
+      <c r="BF56" s="106"/>
+      <c r="BG56" s="106"/>
+      <c r="BH56" s="106"/>
+      <c r="BI56" s="106"/>
+      <c r="BJ56" s="106"/>
+      <c r="BK56" s="106"/>
+      <c r="BL56" s="106"/>
+      <c r="BM56" s="106"/>
+      <c r="BN56" s="106"/>
+    </row>
+    <row r="57" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.8</v>
+      </c>
+      <c r="B57" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="80"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="99">
+        <v>44493</v>
+      </c>
+      <c r="F57" s="100">
+        <f t="shared" ref="F57" si="25">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
+        <v>44493</v>
+      </c>
+      <c r="G57" s="61">
+        <v>1</v>
+      </c>
+      <c r="H57" s="62"/>
+      <c r="I57" s="79">
+        <f t="shared" ref="I57" si="26">IF(OR(F57=0,E57=0)," - ",NETWORKDAYS(E57,F57))</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="98"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="106"/>
+      <c r="P57" s="106"/>
+      <c r="Q57" s="106"/>
+      <c r="R57" s="106"/>
+      <c r="S57" s="106"/>
+      <c r="T57" s="106"/>
+      <c r="U57" s="106"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="106"/>
+      <c r="AB57" s="106"/>
+      <c r="AC57" s="106"/>
+      <c r="AD57" s="106"/>
+      <c r="AE57" s="106"/>
+      <c r="AF57" s="106"/>
+      <c r="AG57" s="106"/>
+      <c r="AH57" s="106"/>
+      <c r="AI57" s="106"/>
+      <c r="AJ57" s="106"/>
+      <c r="AK57" s="106"/>
+      <c r="AL57" s="106"/>
+      <c r="AM57" s="106"/>
+      <c r="AN57" s="106"/>
+      <c r="AO57" s="106"/>
+      <c r="AP57" s="106"/>
+      <c r="AQ57" s="106"/>
+      <c r="AR57" s="106"/>
+      <c r="AS57" s="106"/>
+      <c r="AT57" s="106"/>
+      <c r="AU57" s="106"/>
+      <c r="AV57" s="106"/>
+      <c r="AW57" s="106"/>
+      <c r="AX57" s="106"/>
+      <c r="AY57" s="106"/>
+      <c r="AZ57" s="106"/>
+      <c r="BA57" s="106"/>
+      <c r="BB57" s="106"/>
+      <c r="BC57" s="106"/>
+      <c r="BD57" s="106"/>
+      <c r="BE57" s="106"/>
+      <c r="BF57" s="106"/>
+      <c r="BG57" s="106"/>
+      <c r="BH57" s="106"/>
+      <c r="BI57" s="106"/>
+      <c r="BJ57" s="106"/>
+      <c r="BK57" s="106"/>
+      <c r="BL57" s="106"/>
+      <c r="BM57" s="106"/>
+      <c r="BN57" s="106"/>
+    </row>
+    <row r="58" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A58" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.9</v>
+      </c>
+      <c r="B58" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="80"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="99">
+        <v>44493</v>
+      </c>
+      <c r="F58" s="100">
+        <f t="shared" ref="F58" si="27">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
+        <v>44493</v>
+      </c>
+      <c r="G58" s="61">
+        <v>1</v>
+      </c>
+      <c r="H58" s="62"/>
+      <c r="I58" s="79">
+        <f t="shared" ref="I58" si="28">IF(OR(F58=0,E58=0)," - ",NETWORKDAYS(E58,F58))</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="98"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="106"/>
+      <c r="AC58" s="106"/>
+      <c r="AD58" s="106"/>
+      <c r="AE58" s="106"/>
+      <c r="AF58" s="106"/>
+      <c r="AG58" s="106"/>
+      <c r="AH58" s="106"/>
+      <c r="AI58" s="106"/>
+      <c r="AJ58" s="106"/>
+      <c r="AK58" s="106"/>
+      <c r="AL58" s="106"/>
+      <c r="AM58" s="106"/>
+      <c r="AN58" s="106"/>
+      <c r="AO58" s="106"/>
+      <c r="AP58" s="106"/>
+      <c r="AQ58" s="106"/>
+      <c r="AR58" s="106"/>
+      <c r="AS58" s="106"/>
+      <c r="AT58" s="106"/>
+      <c r="AU58" s="106"/>
+      <c r="AV58" s="106"/>
+      <c r="AW58" s="106"/>
+      <c r="AX58" s="106"/>
+      <c r="AY58" s="106"/>
+      <c r="AZ58" s="106"/>
+      <c r="BA58" s="106"/>
+      <c r="BB58" s="106"/>
+      <c r="BC58" s="106"/>
+      <c r="BD58" s="106"/>
+      <c r="BE58" s="106"/>
+      <c r="BF58" s="106"/>
+      <c r="BG58" s="106"/>
+      <c r="BH58" s="106"/>
+      <c r="BI58" s="106"/>
+      <c r="BJ58" s="106"/>
+      <c r="BK58" s="106"/>
+      <c r="BL58" s="106"/>
+      <c r="BM58" s="106"/>
+      <c r="BN58" s="106"/>
+    </row>
+    <row r="59" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B59" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="126"/>
+      <c r="E59" s="99">
+        <v>44494</v>
+      </c>
+      <c r="F59" s="100">
+        <f t="shared" si="5"/>
+        <v>44496</v>
+      </c>
+      <c r="G59" s="61">
+        <v>3</v>
+      </c>
+      <c r="H59" s="62">
+        <v>0</v>
+      </c>
+      <c r="I59" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="94"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
+      <c r="P59" s="106"/>
+      <c r="Q59" s="106"/>
+      <c r="R59" s="106"/>
+      <c r="S59" s="106"/>
+      <c r="T59" s="106"/>
+      <c r="U59" s="106"/>
+      <c r="V59" s="106"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="106"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="106"/>
+      <c r="AB59" s="106"/>
+      <c r="AC59" s="106"/>
+      <c r="AD59" s="106"/>
+      <c r="AE59" s="106"/>
+      <c r="AF59" s="106"/>
+      <c r="AG59" s="106"/>
+      <c r="AH59" s="106"/>
+      <c r="AI59" s="106"/>
+      <c r="AJ59" s="106"/>
+      <c r="AK59" s="106"/>
+      <c r="AL59" s="106"/>
+      <c r="AM59" s="106"/>
+      <c r="AN59" s="106"/>
+      <c r="AO59" s="106"/>
+      <c r="AP59" s="106"/>
+      <c r="AQ59" s="106"/>
+      <c r="AR59" s="106"/>
+      <c r="AS59" s="106"/>
+      <c r="AT59" s="106"/>
+      <c r="AU59" s="106"/>
+      <c r="AV59" s="106"/>
+      <c r="AW59" s="106"/>
+      <c r="AX59" s="106"/>
+      <c r="AY59" s="106"/>
+      <c r="AZ59" s="106"/>
+      <c r="BA59" s="106"/>
+      <c r="BB59" s="106"/>
+      <c r="BC59" s="106"/>
+      <c r="BD59" s="106"/>
+      <c r="BE59" s="106"/>
+      <c r="BF59" s="106"/>
+      <c r="BG59" s="106"/>
+      <c r="BH59" s="106"/>
+      <c r="BI59" s="106"/>
+      <c r="BJ59" s="106"/>
+      <c r="BK59" s="106"/>
+      <c r="BL59" s="106"/>
+      <c r="BM59" s="106"/>
+      <c r="BN59" s="106"/>
+    </row>
+    <row r="60" spans="1:66" s="60" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B60" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="126"/>
+      <c r="E60" s="99">
+        <v>44497</v>
+      </c>
+      <c r="F60" s="100">
+        <f t="shared" si="5"/>
+        <v>44497</v>
+      </c>
+      <c r="G60" s="61">
+        <v>1</v>
+      </c>
+      <c r="H60" s="62">
+        <v>0</v>
+      </c>
+      <c r="I60" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="94"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="106"/>
+      <c r="Z60" s="106"/>
+      <c r="AA60" s="106"/>
+      <c r="AB60" s="106"/>
+      <c r="AC60" s="106"/>
+      <c r="AD60" s="106"/>
+      <c r="AE60" s="106"/>
+      <c r="AF60" s="106"/>
+      <c r="AG60" s="106"/>
+      <c r="AH60" s="106"/>
+      <c r="AI60" s="106"/>
+      <c r="AJ60" s="106"/>
+      <c r="AK60" s="106"/>
+      <c r="AL60" s="106"/>
+      <c r="AM60" s="106"/>
+      <c r="AN60" s="106"/>
+      <c r="AO60" s="106"/>
+      <c r="AP60" s="106"/>
+      <c r="AQ60" s="106"/>
+      <c r="AR60" s="106"/>
+      <c r="AS60" s="106"/>
+      <c r="AT60" s="106"/>
+      <c r="AU60" s="106"/>
+      <c r="AV60" s="106"/>
+      <c r="AW60" s="106"/>
+      <c r="AX60" s="106"/>
+      <c r="AY60" s="106"/>
+      <c r="AZ60" s="106"/>
+      <c r="BA60" s="106"/>
+      <c r="BB60" s="106"/>
+      <c r="BC60" s="106"/>
+      <c r="BD60" s="106"/>
+      <c r="BE60" s="106"/>
+      <c r="BF60" s="106"/>
+      <c r="BG60" s="106"/>
+      <c r="BH60" s="106"/>
+      <c r="BI60" s="106"/>
+      <c r="BJ60" s="106"/>
+      <c r="BK60" s="106"/>
+      <c r="BL60" s="106"/>
+      <c r="BM60" s="106"/>
+      <c r="BN60" s="106"/>
+    </row>
+    <row r="61" spans="1:66" s="186" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B61" s="178" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="179"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="181"/>
+      <c r="F61" s="182" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G61" s="183"/>
+      <c r="H61" s="184"/>
+      <c r="I61" s="183" t="str">
+        <f>IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J61" s="185"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="108"/>
+      <c r="Z61" s="108"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="108"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="108"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="108"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="108"/>
+      <c r="AJ61" s="108"/>
+      <c r="AK61" s="108"/>
+      <c r="AL61" s="108"/>
+      <c r="AM61" s="108"/>
+      <c r="AN61" s="108"/>
+      <c r="AO61" s="108"/>
+      <c r="AP61" s="108"/>
+      <c r="AQ61" s="108"/>
+      <c r="AR61" s="108"/>
+      <c r="AS61" s="108"/>
+      <c r="AT61" s="108"/>
+      <c r="AU61" s="108"/>
+      <c r="AV61" s="108"/>
+      <c r="AW61" s="108"/>
+      <c r="AX61" s="108"/>
+      <c r="AY61" s="108"/>
+      <c r="AZ61" s="108"/>
+      <c r="BA61" s="108"/>
+      <c r="BB61" s="108"/>
+      <c r="BC61" s="108"/>
+      <c r="BD61" s="108"/>
+      <c r="BE61" s="108"/>
+      <c r="BF61" s="108"/>
+      <c r="BG61" s="108"/>
+      <c r="BH61" s="108"/>
+      <c r="BI61" s="108"/>
+      <c r="BJ61" s="108"/>
+      <c r="BK61" s="108"/>
+      <c r="BL61" s="108"/>
+      <c r="BM61" s="108"/>
+      <c r="BN61" s="108"/>
+    </row>
+    <row r="62" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="80"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="99">
+        <v>44498</v>
+      </c>
+      <c r="F62" s="100">
+        <f t="shared" si="5"/>
+        <v>44498</v>
+      </c>
+      <c r="G62" s="61">
+        <v>1</v>
+      </c>
+      <c r="H62" s="62"/>
+      <c r="I62" s="79">
+        <f t="shared" ref="I62" si="29">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="98"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="106"/>
+      <c r="S62" s="106"/>
+      <c r="T62" s="106"/>
+      <c r="U62" s="106"/>
+      <c r="V62" s="106"/>
+      <c r="W62" s="106"/>
+      <c r="X62" s="106"/>
+      <c r="Y62" s="106"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="106"/>
+      <c r="AB62" s="106"/>
+      <c r="AC62" s="106"/>
+      <c r="AD62" s="106"/>
+      <c r="AE62" s="106"/>
+      <c r="AF62" s="106"/>
+      <c r="AG62" s="106"/>
+      <c r="AH62" s="106"/>
+      <c r="AI62" s="106"/>
+      <c r="AJ62" s="106"/>
+      <c r="AK62" s="106"/>
+      <c r="AL62" s="106"/>
+      <c r="AM62" s="106"/>
+      <c r="AN62" s="106"/>
+      <c r="AO62" s="106"/>
+      <c r="AP62" s="106"/>
+      <c r="AQ62" s="106"/>
+      <c r="AR62" s="106"/>
+      <c r="AS62" s="106"/>
+      <c r="AT62" s="106"/>
+      <c r="AU62" s="106"/>
+      <c r="AV62" s="106"/>
+      <c r="AW62" s="106"/>
+      <c r="AX62" s="106"/>
+      <c r="AY62" s="106"/>
+      <c r="AZ62" s="106"/>
+      <c r="BA62" s="106"/>
+      <c r="BB62" s="106"/>
+      <c r="BC62" s="106"/>
+      <c r="BD62" s="106"/>
+      <c r="BE62" s="106"/>
+      <c r="BF62" s="106"/>
+      <c r="BG62" s="106"/>
+      <c r="BH62" s="106"/>
+      <c r="BI62" s="106"/>
+      <c r="BJ62" s="106"/>
+      <c r="BK62" s="106"/>
+      <c r="BL62" s="106"/>
+      <c r="BM62" s="106"/>
+      <c r="BN62" s="106"/>
+    </row>
+    <row r="63" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="80"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="99">
+        <v>44499</v>
+      </c>
+      <c r="F63" s="100">
+        <f t="shared" ref="F63" si="30">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
+        <v>44499</v>
+      </c>
+      <c r="G63" s="61">
+        <v>1</v>
+      </c>
+      <c r="H63" s="62"/>
+      <c r="I63" s="79">
+        <f t="shared" ref="I63" si="31">IF(OR(F63=0,E63=0)," - ",NETWORKDAYS(E63,F63))</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="98"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="106"/>
+      <c r="N63" s="106"/>
+      <c r="O63" s="106"/>
+      <c r="P63" s="106"/>
+      <c r="Q63" s="106"/>
+      <c r="R63" s="106"/>
+      <c r="S63" s="106"/>
+      <c r="T63" s="106"/>
+      <c r="U63" s="106"/>
+      <c r="V63" s="106"/>
+      <c r="W63" s="106"/>
+      <c r="X63" s="106"/>
+      <c r="Y63" s="106"/>
+      <c r="Z63" s="106"/>
+      <c r="AA63" s="106"/>
+      <c r="AB63" s="106"/>
+      <c r="AC63" s="106"/>
+      <c r="AD63" s="106"/>
+      <c r="AE63" s="106"/>
+      <c r="AF63" s="106"/>
+      <c r="AG63" s="106"/>
+      <c r="AH63" s="106"/>
+      <c r="AI63" s="106"/>
+      <c r="AJ63" s="106"/>
+      <c r="AK63" s="106"/>
+      <c r="AL63" s="106"/>
+      <c r="AM63" s="106"/>
+      <c r="AN63" s="106"/>
+      <c r="AO63" s="106"/>
+      <c r="AP63" s="106"/>
+      <c r="AQ63" s="106"/>
+      <c r="AR63" s="106"/>
+      <c r="AS63" s="106"/>
+      <c r="AT63" s="106"/>
+      <c r="AU63" s="106"/>
+      <c r="AV63" s="106"/>
+      <c r="AW63" s="106"/>
+      <c r="AX63" s="106"/>
+      <c r="AY63" s="106"/>
+      <c r="AZ63" s="106"/>
+      <c r="BA63" s="106"/>
+      <c r="BB63" s="106"/>
+      <c r="BC63" s="106"/>
+      <c r="BD63" s="106"/>
+      <c r="BE63" s="106"/>
+      <c r="BF63" s="106"/>
+      <c r="BG63" s="106"/>
+      <c r="BH63" s="106"/>
+      <c r="BI63" s="106"/>
+      <c r="BJ63" s="106"/>
+      <c r="BK63" s="106"/>
+      <c r="BL63" s="106"/>
+      <c r="BM63" s="106"/>
+      <c r="BN63" s="106"/>
+    </row>
+    <row r="64" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B64" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="80"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="99">
+        <v>44500</v>
+      </c>
+      <c r="F64" s="100">
+        <f t="shared" ref="F64" si="32">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <v>44500</v>
+      </c>
+      <c r="G64" s="61">
+        <v>1</v>
+      </c>
+      <c r="H64" s="62"/>
+      <c r="I64" s="79">
+        <f t="shared" ref="I64" si="33">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="98"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="P64" s="106"/>
+      <c r="Q64" s="106"/>
+      <c r="R64" s="106"/>
+      <c r="S64" s="106"/>
+      <c r="T64" s="106"/>
+      <c r="U64" s="106"/>
+      <c r="V64" s="106"/>
+      <c r="W64" s="106"/>
+      <c r="X64" s="106"/>
+      <c r="Y64" s="106"/>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106"/>
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="106"/>
+      <c r="AE64" s="106"/>
+      <c r="AF64" s="106"/>
+      <c r="AG64" s="106"/>
+      <c r="AH64" s="106"/>
+      <c r="AI64" s="106"/>
+      <c r="AJ64" s="106"/>
+      <c r="AK64" s="106"/>
+      <c r="AL64" s="106"/>
+      <c r="AM64" s="106"/>
+      <c r="AN64" s="106"/>
+      <c r="AO64" s="106"/>
+      <c r="AP64" s="106"/>
+      <c r="AQ64" s="106"/>
+      <c r="AR64" s="106"/>
+      <c r="AS64" s="106"/>
+      <c r="AT64" s="106"/>
+      <c r="AU64" s="106"/>
+      <c r="AV64" s="106"/>
+      <c r="AW64" s="106"/>
+      <c r="AX64" s="106"/>
+      <c r="AY64" s="106"/>
+      <c r="AZ64" s="106"/>
+      <c r="BA64" s="106"/>
+      <c r="BB64" s="106"/>
+      <c r="BC64" s="106"/>
+      <c r="BD64" s="106"/>
+      <c r="BE64" s="106"/>
+      <c r="BF64" s="106"/>
+      <c r="BG64" s="106"/>
+      <c r="BH64" s="106"/>
+      <c r="BI64" s="106"/>
+      <c r="BJ64" s="106"/>
+      <c r="BK64" s="106"/>
+      <c r="BL64" s="106"/>
+      <c r="BM64" s="106"/>
+      <c r="BN64" s="106"/>
+    </row>
+    <row r="65" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="80"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="99">
+        <v>44501</v>
+      </c>
+      <c r="F65" s="100">
+        <f t="shared" ref="F65" si="34">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <v>44501</v>
+      </c>
+      <c r="G65" s="61">
+        <v>1</v>
+      </c>
+      <c r="H65" s="62"/>
+      <c r="I65" s="79">
+        <f t="shared" ref="I65" si="35">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+        <v>1</v>
+      </c>
+      <c r="J65" s="98"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="106"/>
+      <c r="N65" s="106"/>
+      <c r="O65" s="106"/>
+      <c r="P65" s="106"/>
+      <c r="Q65" s="106"/>
+      <c r="R65" s="106"/>
+      <c r="S65" s="106"/>
+      <c r="T65" s="106"/>
+      <c r="U65" s="106"/>
+      <c r="V65" s="106"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="106"/>
+      <c r="Y65" s="106"/>
+      <c r="Z65" s="106"/>
+      <c r="AA65" s="106"/>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="106"/>
+      <c r="AE65" s="106"/>
+      <c r="AF65" s="106"/>
+      <c r="AG65" s="106"/>
+      <c r="AH65" s="106"/>
+      <c r="AI65" s="106"/>
+      <c r="AJ65" s="106"/>
+      <c r="AK65" s="106"/>
+      <c r="AL65" s="106"/>
+      <c r="AM65" s="106"/>
+      <c r="AN65" s="106"/>
+      <c r="AO65" s="106"/>
+      <c r="AP65" s="106"/>
+      <c r="AQ65" s="106"/>
+      <c r="AR65" s="106"/>
+      <c r="AS65" s="106"/>
+      <c r="AT65" s="106"/>
+      <c r="AU65" s="106"/>
+      <c r="AV65" s="106"/>
+      <c r="AW65" s="106"/>
+      <c r="AX65" s="106"/>
+      <c r="AY65" s="106"/>
+      <c r="AZ65" s="106"/>
+      <c r="BA65" s="106"/>
+      <c r="BB65" s="106"/>
+      <c r="BC65" s="106"/>
+      <c r="BD65" s="106"/>
+      <c r="BE65" s="106"/>
+      <c r="BF65" s="106"/>
+      <c r="BG65" s="106"/>
+      <c r="BH65" s="106"/>
+      <c r="BI65" s="106"/>
+      <c r="BJ65" s="106"/>
+      <c r="BK65" s="106"/>
+      <c r="BL65" s="106"/>
+      <c r="BM65" s="106"/>
+      <c r="BN65" s="106"/>
+    </row>
+    <row r="66" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J66" s="96"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="106"/>
+      <c r="O66" s="106"/>
+      <c r="P66" s="106"/>
+      <c r="Q66" s="106"/>
+      <c r="R66" s="106"/>
+      <c r="S66" s="106"/>
+      <c r="T66" s="106"/>
+      <c r="U66" s="106"/>
+      <c r="V66" s="106"/>
+      <c r="W66" s="106"/>
+      <c r="X66" s="106"/>
+      <c r="Y66" s="106"/>
+      <c r="Z66" s="106"/>
+      <c r="AA66" s="106"/>
+      <c r="AB66" s="106"/>
+      <c r="AC66" s="106"/>
+      <c r="AD66" s="106"/>
+      <c r="AE66" s="106"/>
+      <c r="AF66" s="106"/>
+      <c r="AG66" s="106"/>
+      <c r="AH66" s="106"/>
+      <c r="AI66" s="106"/>
+      <c r="AJ66" s="106"/>
+      <c r="AK66" s="106"/>
+      <c r="AL66" s="106"/>
+      <c r="AM66" s="106"/>
+      <c r="AN66" s="106"/>
+      <c r="AO66" s="106"/>
+      <c r="AP66" s="106"/>
+      <c r="AQ66" s="106"/>
+      <c r="AR66" s="106"/>
+      <c r="AS66" s="106"/>
+      <c r="AT66" s="106"/>
+      <c r="AU66" s="106"/>
+      <c r="AV66" s="106"/>
+      <c r="AW66" s="106"/>
+      <c r="AX66" s="106"/>
+      <c r="AY66" s="106"/>
+      <c r="AZ66" s="106"/>
+      <c r="BA66" s="106"/>
+      <c r="BB66" s="106"/>
+      <c r="BC66" s="106"/>
+      <c r="BD66" s="106"/>
+      <c r="BE66" s="106"/>
+      <c r="BF66" s="106"/>
+      <c r="BG66" s="106"/>
+      <c r="BH66" s="106"/>
+      <c r="BI66" s="106"/>
+      <c r="BJ66" s="106"/>
+      <c r="BK66" s="106"/>
+      <c r="BL66" s="106"/>
+      <c r="BM66" s="106"/>
+      <c r="BN66" s="106"/>
+    </row>
+    <row r="67" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J67" s="96"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="106"/>
+      <c r="N67" s="106"/>
+      <c r="O67" s="106"/>
+      <c r="P67" s="106"/>
+      <c r="Q67" s="106"/>
+      <c r="R67" s="106"/>
+      <c r="S67" s="106"/>
+      <c r="T67" s="106"/>
+      <c r="U67" s="106"/>
+      <c r="V67" s="106"/>
+      <c r="W67" s="106"/>
+      <c r="X67" s="106"/>
+      <c r="Y67" s="106"/>
+      <c r="Z67" s="106"/>
+      <c r="AA67" s="106"/>
+      <c r="AB67" s="106"/>
+      <c r="AC67" s="106"/>
+      <c r="AD67" s="106"/>
+      <c r="AE67" s="106"/>
+      <c r="AF67" s="106"/>
+      <c r="AG67" s="106"/>
+      <c r="AH67" s="106"/>
+      <c r="AI67" s="106"/>
+      <c r="AJ67" s="106"/>
+      <c r="AK67" s="106"/>
+      <c r="AL67" s="106"/>
+      <c r="AM67" s="106"/>
+      <c r="AN67" s="106"/>
+      <c r="AO67" s="106"/>
+      <c r="AP67" s="106"/>
+      <c r="AQ67" s="106"/>
+      <c r="AR67" s="106"/>
+      <c r="AS67" s="106"/>
+      <c r="AT67" s="106"/>
+      <c r="AU67" s="106"/>
+      <c r="AV67" s="106"/>
+      <c r="AW67" s="106"/>
+      <c r="AX67" s="106"/>
+      <c r="AY67" s="106"/>
+      <c r="AZ67" s="106"/>
+      <c r="BA67" s="106"/>
+      <c r="BB67" s="106"/>
+      <c r="BC67" s="106"/>
+      <c r="BD67" s="106"/>
+      <c r="BE67" s="106"/>
+      <c r="BF67" s="106"/>
+      <c r="BG67" s="106"/>
+      <c r="BH67" s="106"/>
+      <c r="BI67" s="106"/>
+      <c r="BJ67" s="106"/>
+      <c r="BK67" s="106"/>
+      <c r="BL67" s="106"/>
+      <c r="BM67" s="106"/>
+      <c r="BN67" s="106"/>
+    </row>
+    <row r="68" spans="1:66" s="74" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="71"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="106"/>
+      <c r="M68" s="106"/>
+      <c r="N68" s="106"/>
+      <c r="O68" s="106"/>
+      <c r="P68" s="106"/>
+      <c r="Q68" s="106"/>
+      <c r="R68" s="106"/>
+      <c r="S68" s="106"/>
+      <c r="T68" s="106"/>
+      <c r="U68" s="106"/>
+      <c r="V68" s="106"/>
+      <c r="W68" s="106"/>
+      <c r="X68" s="106"/>
+      <c r="Y68" s="106"/>
+      <c r="Z68" s="106"/>
+      <c r="AA68" s="106"/>
+      <c r="AB68" s="106"/>
+      <c r="AC68" s="106"/>
+      <c r="AD68" s="106"/>
+      <c r="AE68" s="106"/>
+      <c r="AF68" s="106"/>
+      <c r="AG68" s="106"/>
+      <c r="AH68" s="106"/>
+      <c r="AI68" s="106"/>
+      <c r="AJ68" s="106"/>
+      <c r="AK68" s="106"/>
+      <c r="AL68" s="106"/>
+      <c r="AM68" s="106"/>
+      <c r="AN68" s="106"/>
+      <c r="AO68" s="106"/>
+      <c r="AP68" s="106"/>
+      <c r="AQ68" s="106"/>
+      <c r="AR68" s="106"/>
+      <c r="AS68" s="106"/>
+      <c r="AT68" s="106"/>
+      <c r="AU68" s="106"/>
+      <c r="AV68" s="106"/>
+      <c r="AW68" s="106"/>
+      <c r="AX68" s="106"/>
+      <c r="AY68" s="106"/>
+      <c r="AZ68" s="106"/>
+      <c r="BA68" s="106"/>
+      <c r="BB68" s="106"/>
+      <c r="BC68" s="106"/>
+      <c r="BD68" s="106"/>
+      <c r="BE68" s="106"/>
+      <c r="BF68" s="106"/>
+      <c r="BG68" s="106"/>
+      <c r="BH68" s="106"/>
+      <c r="BI68" s="106"/>
+      <c r="BJ68" s="106"/>
+      <c r="BK68" s="106"/>
+      <c r="BL68" s="106"/>
+      <c r="BM68" s="106"/>
+      <c r="BN68" s="106"/>
+    </row>
+    <row r="69" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="106"/>
+      <c r="S69" s="106"/>
+      <c r="T69" s="106"/>
+      <c r="U69" s="106"/>
+      <c r="V69" s="106"/>
+      <c r="W69" s="106"/>
+      <c r="X69" s="106"/>
+      <c r="Y69" s="106"/>
+      <c r="Z69" s="106"/>
+      <c r="AA69" s="106"/>
+      <c r="AB69" s="106"/>
+      <c r="AC69" s="106"/>
+      <c r="AD69" s="106"/>
+      <c r="AE69" s="106"/>
+      <c r="AF69" s="106"/>
+      <c r="AG69" s="106"/>
+      <c r="AH69" s="106"/>
+      <c r="AI69" s="106"/>
+      <c r="AJ69" s="106"/>
+      <c r="AK69" s="106"/>
+      <c r="AL69" s="106"/>
+      <c r="AM69" s="106"/>
+      <c r="AN69" s="106"/>
+      <c r="AO69" s="106"/>
+      <c r="AP69" s="106"/>
+      <c r="AQ69" s="106"/>
+      <c r="AR69" s="106"/>
+      <c r="AS69" s="106"/>
+      <c r="AT69" s="106"/>
+      <c r="AU69" s="106"/>
+      <c r="AV69" s="106"/>
+      <c r="AW69" s="106"/>
+      <c r="AX69" s="106"/>
+      <c r="AY69" s="106"/>
+      <c r="AZ69" s="106"/>
+      <c r="BA69" s="106"/>
+      <c r="BB69" s="106"/>
+      <c r="BC69" s="106"/>
+      <c r="BD69" s="106"/>
+      <c r="BE69" s="106"/>
+      <c r="BF69" s="106"/>
+      <c r="BG69" s="106"/>
+      <c r="BH69" s="106"/>
+      <c r="BI69" s="106"/>
+      <c r="BJ69" s="106"/>
+      <c r="BK69" s="106"/>
+      <c r="BL69" s="106"/>
+      <c r="BM69" s="106"/>
+      <c r="BN69" s="106"/>
+    </row>
+    <row r="70" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="128" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B70" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="77"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="100" t="str">
+        <f t="shared" ref="F70:F73" si="36">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G70" s="61"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="79" t="str">
+        <f>IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J70" s="98"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="106"/>
+      <c r="R70" s="106"/>
+      <c r="S70" s="106"/>
+      <c r="T70" s="106"/>
+      <c r="U70" s="106"/>
+      <c r="V70" s="106"/>
+      <c r="W70" s="106"/>
+      <c r="X70" s="106"/>
+      <c r="Y70" s="106"/>
+      <c r="Z70" s="106"/>
+      <c r="AA70" s="106"/>
+      <c r="AB70" s="106"/>
+      <c r="AC70" s="106"/>
+      <c r="AD70" s="106"/>
+      <c r="AE70" s="106"/>
+      <c r="AF70" s="106"/>
+      <c r="AG70" s="106"/>
+      <c r="AH70" s="106"/>
+      <c r="AI70" s="106"/>
+      <c r="AJ70" s="106"/>
+      <c r="AK70" s="106"/>
+      <c r="AL70" s="106"/>
+      <c r="AM70" s="106"/>
+      <c r="AN70" s="106"/>
+      <c r="AO70" s="106"/>
+      <c r="AP70" s="106"/>
+      <c r="AQ70" s="106"/>
+      <c r="AR70" s="106"/>
+      <c r="AS70" s="106"/>
+      <c r="AT70" s="106"/>
+      <c r="AU70" s="106"/>
+      <c r="AV70" s="106"/>
+      <c r="AW70" s="106"/>
+      <c r="AX70" s="106"/>
+      <c r="AY70" s="106"/>
+      <c r="AZ70" s="106"/>
+      <c r="BA70" s="106"/>
+      <c r="BB70" s="106"/>
+      <c r="BC70" s="106"/>
+      <c r="BD70" s="106"/>
+      <c r="BE70" s="106"/>
+      <c r="BF70" s="106"/>
+      <c r="BG70" s="106"/>
+      <c r="BH70" s="106"/>
+      <c r="BI70" s="106"/>
+      <c r="BJ70" s="106"/>
+      <c r="BK70" s="106"/>
+      <c r="BL70" s="106"/>
+      <c r="BM70" s="106"/>
+      <c r="BN70" s="106"/>
+    </row>
+    <row r="71" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="80"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="100" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G71" s="61"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="79" t="str">
+        <f t="shared" ref="I71:I73" si="37">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J71" s="98"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="106"/>
+      <c r="M71" s="106"/>
+      <c r="N71" s="106"/>
+      <c r="O71" s="106"/>
+      <c r="P71" s="106"/>
+      <c r="Q71" s="106"/>
+      <c r="R71" s="106"/>
+      <c r="S71" s="106"/>
+      <c r="T71" s="106"/>
+      <c r="U71" s="106"/>
+      <c r="V71" s="106"/>
+      <c r="W71" s="106"/>
+      <c r="X71" s="106"/>
+      <c r="Y71" s="106"/>
+      <c r="Z71" s="106"/>
+      <c r="AA71" s="106"/>
+      <c r="AB71" s="106"/>
+      <c r="AC71" s="106"/>
+      <c r="AD71" s="106"/>
+      <c r="AE71" s="106"/>
+      <c r="AF71" s="106"/>
+      <c r="AG71" s="106"/>
+      <c r="AH71" s="106"/>
+      <c r="AI71" s="106"/>
+      <c r="AJ71" s="106"/>
+      <c r="AK71" s="106"/>
+      <c r="AL71" s="106"/>
+      <c r="AM71" s="106"/>
+      <c r="AN71" s="106"/>
+      <c r="AO71" s="106"/>
+      <c r="AP71" s="106"/>
+      <c r="AQ71" s="106"/>
+      <c r="AR71" s="106"/>
+      <c r="AS71" s="106"/>
+      <c r="AT71" s="106"/>
+      <c r="AU71" s="106"/>
+      <c r="AV71" s="106"/>
+      <c r="AW71" s="106"/>
+      <c r="AX71" s="106"/>
+      <c r="AY71" s="106"/>
+      <c r="AZ71" s="106"/>
+      <c r="BA71" s="106"/>
+      <c r="BB71" s="106"/>
+      <c r="BC71" s="106"/>
+      <c r="BD71" s="106"/>
+      <c r="BE71" s="106"/>
+      <c r="BF71" s="106"/>
+      <c r="BG71" s="106"/>
+      <c r="BH71" s="106"/>
+      <c r="BI71" s="106"/>
+      <c r="BJ71" s="106"/>
+      <c r="BK71" s="106"/>
+      <c r="BL71" s="106"/>
+      <c r="BM71" s="106"/>
+      <c r="BN71" s="106"/>
+    </row>
+    <row r="72" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B72" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="80"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="100" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G72" s="61"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="79" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J72" s="98"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="106"/>
+      <c r="M72" s="106"/>
+      <c r="N72" s="106"/>
+      <c r="O72" s="106"/>
+      <c r="P72" s="106"/>
+      <c r="Q72" s="106"/>
+      <c r="R72" s="106"/>
+      <c r="S72" s="106"/>
+      <c r="T72" s="106"/>
+      <c r="U72" s="106"/>
+      <c r="V72" s="106"/>
+      <c r="W72" s="106"/>
+      <c r="X72" s="106"/>
+      <c r="Y72" s="106"/>
+      <c r="Z72" s="106"/>
+      <c r="AA72" s="106"/>
+      <c r="AB72" s="106"/>
+      <c r="AC72" s="106"/>
+      <c r="AD72" s="106"/>
+      <c r="AE72" s="106"/>
+      <c r="AF72" s="106"/>
+      <c r="AG72" s="106"/>
+      <c r="AH72" s="106"/>
+      <c r="AI72" s="106"/>
+      <c r="AJ72" s="106"/>
+      <c r="AK72" s="106"/>
+      <c r="AL72" s="106"/>
+      <c r="AM72" s="106"/>
+      <c r="AN72" s="106"/>
+      <c r="AO72" s="106"/>
+      <c r="AP72" s="106"/>
+      <c r="AQ72" s="106"/>
+      <c r="AR72" s="106"/>
+      <c r="AS72" s="106"/>
+      <c r="AT72" s="106"/>
+      <c r="AU72" s="106"/>
+      <c r="AV72" s="106"/>
+      <c r="AW72" s="106"/>
+      <c r="AX72" s="106"/>
+      <c r="AY72" s="106"/>
+      <c r="AZ72" s="106"/>
+      <c r="BA72" s="106"/>
+      <c r="BB72" s="106"/>
+      <c r="BC72" s="106"/>
+      <c r="BD72" s="106"/>
+      <c r="BE72" s="106"/>
+      <c r="BF72" s="106"/>
+      <c r="BG72" s="106"/>
+      <c r="BH72" s="106"/>
+      <c r="BI72" s="106"/>
+      <c r="BJ72" s="106"/>
+      <c r="BK72" s="106"/>
+      <c r="BL72" s="106"/>
+      <c r="BM72" s="106"/>
+      <c r="BN72" s="106"/>
+    </row>
+    <row r="73" spans="1:66" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B73" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="80"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="100" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G73" s="61"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="79" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J73" s="98"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="106"/>
+      <c r="N73" s="106"/>
+      <c r="O73" s="106"/>
+      <c r="P73" s="106"/>
+      <c r="Q73" s="106"/>
+      <c r="R73" s="106"/>
+      <c r="S73" s="106"/>
+      <c r="T73" s="106"/>
+      <c r="U73" s="106"/>
+      <c r="V73" s="106"/>
+      <c r="W73" s="106"/>
+      <c r="X73" s="106"/>
+      <c r="Y73" s="106"/>
+      <c r="Z73" s="106"/>
+      <c r="AA73" s="106"/>
+      <c r="AB73" s="106"/>
+      <c r="AC73" s="106"/>
+      <c r="AD73" s="106"/>
+      <c r="AE73" s="106"/>
+      <c r="AF73" s="106"/>
+      <c r="AG73" s="106"/>
+      <c r="AH73" s="106"/>
+      <c r="AI73" s="106"/>
+      <c r="AJ73" s="106"/>
+      <c r="AK73" s="106"/>
+      <c r="AL73" s="106"/>
+      <c r="AM73" s="106"/>
+      <c r="AN73" s="106"/>
+      <c r="AO73" s="106"/>
+      <c r="AP73" s="106"/>
+      <c r="AQ73" s="106"/>
+      <c r="AR73" s="106"/>
+      <c r="AS73" s="106"/>
+      <c r="AT73" s="106"/>
+      <c r="AU73" s="106"/>
+      <c r="AV73" s="106"/>
+      <c r="AW73" s="106"/>
+      <c r="AX73" s="106"/>
+      <c r="AY73" s="106"/>
+      <c r="AZ73" s="106"/>
+      <c r="BA73" s="106"/>
+      <c r="BB73" s="106"/>
+      <c r="BC73" s="106"/>
+      <c r="BD73" s="106"/>
+      <c r="BE73" s="106"/>
+      <c r="BF73" s="106"/>
+      <c r="BG73" s="106"/>
+      <c r="BH73" s="106"/>
+      <c r="BI73" s="106"/>
+      <c r="BJ73" s="106"/>
+      <c r="BK73" s="106"/>
+      <c r="BL73" s="106"/>
+      <c r="BM73" s="106"/>
+      <c r="BN73" s="106"/>
+    </row>
+    <row r="74" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="161" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="30"/>
-      <c r="AU44" s="30"/>
-      <c r="AV44" s="30"/>
-      <c r="AW44" s="30"/>
-      <c r="AX44" s="30"/>
-      <c r="AY44" s="30"/>
-      <c r="AZ44" s="30"/>
-      <c r="BA44" s="30"/>
-      <c r="BB44" s="30"/>
-      <c r="BC44" s="30"/>
-      <c r="BD44" s="30"/>
-      <c r="BE44" s="30"/>
-      <c r="BF44" s="30"/>
-      <c r="BG44" s="30"/>
-      <c r="BH44" s="30"/>
-      <c r="BI44" s="30"/>
-      <c r="BJ44" s="30"/>
-      <c r="BK44" s="30"/>
-      <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="30"/>
+      <c r="AG74" s="30"/>
+      <c r="AH74" s="30"/>
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="30"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="30"/>
+      <c r="AN74" s="30"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="30"/>
+      <c r="AQ74" s="30"/>
+      <c r="AR74" s="30"/>
+      <c r="AS74" s="30"/>
+      <c r="AT74" s="30"/>
+      <c r="AU74" s="30"/>
+      <c r="AV74" s="30"/>
+      <c r="AW74" s="30"/>
+      <c r="AX74" s="30"/>
+      <c r="AY74" s="30"/>
+      <c r="AZ74" s="30"/>
+      <c r="BA74" s="30"/>
+      <c r="BB74" s="30"/>
+      <c r="BC74" s="30"/>
+      <c r="BD74" s="30"/>
+      <c r="BE74" s="30"/>
+      <c r="BF74" s="30"/>
+      <c r="BG74" s="30"/>
+      <c r="BH74" s="30"/>
+      <c r="BI74" s="30"/>
+      <c r="BJ74" s="30"/>
+      <c r="BK74" s="30"/>
+      <c r="BL74" s="30"/>
+      <c r="BM74" s="30"/>
+      <c r="BN74" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7592,10 +11195,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H43">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H8:H27 H45:H46 H49 H59:H60 H66:H73">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7609,20 +11221,1069 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="3" priority="45">
+    <cfRule type="expression" dxfId="107" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN43">
-    <cfRule type="expression" dxfId="2" priority="48">
+  <conditionalFormatting sqref="K8:BN27 K35:BN37 K45:BN46 K49:BN49 K59:BN61 K66:BN73">
+    <cfRule type="expression" dxfId="106" priority="200">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="105" priority="201">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN43">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="K6:BN27 K45:BN46 K49:BN49 K59:BN60 K66:BN73">
+    <cfRule type="expression" dxfId="104" priority="160">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="dataBar" priority="149">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19772758-57CC-4273-B2B3-700037C98FB6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="103" priority="151">
+      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="152">
+      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="101" priority="150">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="dataBar" priority="141">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F210AE7-485C-4878-B6B5-1C14062062D9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="145">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3855031C-E4B6-4857-8EA4-BBEAE594A845}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="100" priority="147">
+      <formula>AND($E29&lt;=K$6,ROUNDDOWN(($F29-$E29+1)*$H29,0)+$E29-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="148">
+      <formula>AND(NOT(ISBLANK($E29)),$E29&lt;=K$6,$F29&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="98" priority="146">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="97" priority="143">
+      <formula>AND($E30&lt;=K$6,ROUNDDOWN(($F30-$E30+1)*$H30,0)+$E30-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="144">
+      <formula>AND(NOT(ISBLANK($E30)),$E30&lt;=K$6,$F30&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="95" priority="142">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H37">
+    <cfRule type="dataBar" priority="137">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E4D1D63-F40B-4426-8C23-6F9D20F0D420}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN37">
+    <cfRule type="expression" dxfId="94" priority="138">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="133">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D8BF262-FD16-478A-B45E-75FE4CB26ADB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="93" priority="135">
+      <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="136">
+      <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="91" priority="134">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="129">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{878D46B9-CE66-4E59-98CD-09455C957827}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="90" priority="131">
+      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="132">
+      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="88" priority="130">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="125">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D43F2BA-8DBC-4741-ABE3-5128BEA6D052}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="87" priority="127">
+      <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="128">
+      <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="85" priority="126">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="121">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66EE9652-C6BF-4839-9BAD-1FFE67DC3A09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="84" priority="123">
+      <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="124">
+      <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="82" priority="122">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="dataBar" priority="117">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7E5588A7-4223-40E3-AE4D-CCF9A58C931A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN37">
+    <cfRule type="expression" dxfId="81" priority="118">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="113">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7AFCFE02-3703-4082-93E0-C73837FEB1D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="80" priority="114">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="105">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97AEA868-4B1D-46A2-81BA-538238129B61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="97">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FC35556-EE01-45D3-9FDE-6624F97AFFD6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="93">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFD79F1A-6A80-404F-9EBE-3ACCEFFCB9C0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="79" priority="111">
+      <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="112">
+      <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="109">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27467586-E645-42DB-B613-EBE83D5A8796}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="77" priority="110">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="107">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE457347-C06F-4406-B7BC-6030D4866272}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="76" priority="108">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="89">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF4886C9-7CC1-4A03-86A8-F3907ED29A84}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="75" priority="106">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D23A73D3-4253-4127-9BC4-F740FB3F79FD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="74" priority="103">
+      <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="104">
+      <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="101">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{323A8243-4660-4412-A54E-48F818E80BFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="72" priority="102">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8BE31D11-2B86-4A7E-A85F-E6E4C0BF3217}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="71" priority="100">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="70" priority="98">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="73">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B265865C-925A-487A-AE62-706D9F7619E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="69" priority="95">
+      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="96">
+      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="67" priority="94">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B9622AB2-6F97-43ED-B611-A90F091C7B23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="66" priority="91">
+      <formula>AND($E41&lt;=K$6,ROUNDDOWN(($F41-$E41+1)*$H41,0)+$E41-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="92">
+      <formula>AND(NOT(ISBLANK($E41)),$E41&lt;=K$6,$F41&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="64" priority="90">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{104DC174-08A1-4572-A1D1-BE7E04386608}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="63" priority="87">
+      <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="88">
+      <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0C0D85A-C904-4F96-B751-13002123FD2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="61" priority="86">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A264A938-D271-4D2C-B33C-E71C835A62AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="60" priority="84">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="59" priority="82">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A37BCBE7-C9B9-48AC-9032-C0B7A2D59B67}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="58" priority="79">
+      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="80">
+      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="77">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{487A3F33-4ACD-4122-82E7-124557A09267}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="56" priority="78">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="75">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A99C42F1-B3AB-4FAD-B005-675D07F4EA16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="55" priority="76">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="54" priority="74">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CBE1236D-3521-4C25-9648-4263219204C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="53" priority="71">
+      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="72">
+      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EDCAC1BA-8630-4F0F-BD71-589184767450}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="51" priority="70">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F375F170-1399-4B96-BBFA-4D799DC2B3B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="50" priority="68">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="49" priority="66">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCCE1EA8-4A00-46E3-A2CC-5FB35DD3FC7D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{297D579B-10E7-4BAB-9454-A0D86A2FC4C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="48" priority="63">
+      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="64">
+      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="46" priority="62">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F07EDD46-367C-4401-BCB1-BB4A6DB5308A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="45" priority="59">
+      <formula>AND($E50&lt;=K$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="60">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=K$6,$F50&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="43" priority="58">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A4B1CD6A-4237-4B5E-91EF-A48D094C7218}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>AND($E51&lt;=K$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="56">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=K$6,$F51&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="40" priority="54">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E744311-1641-4AB7-9A22-87B0C6E3A0E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="39" priority="51">
+      <formula>AND($E52&lt;=K$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="52">
+      <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=K$6,$F52&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="37" priority="50">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F4F9F35-5861-40E1-9AB4-45DEA98A037F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="36" priority="47">
+      <formula>AND($E53&lt;=K$6,ROUNDDOWN(($F53-$E53+1)*$H53,0)+$E53-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="48">
+      <formula>AND(NOT(ISBLANK($E53)),$E53&lt;=K$6,$F53&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="34" priority="46">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC81BF4F-4CEF-479B-8148-1692EC3ED334}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="33" priority="43">
+      <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="44">
+      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="31" priority="42">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AFF8849-90F5-4A7B-8003-F234869F405A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="30" priority="39">
+      <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="40">
+      <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="28" priority="38">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{387BC0F4-135E-4008-B678-1090CEEF872F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>AND($E56&lt;=K$6,ROUNDDOWN(($F56-$E56+1)*$H56,0)+$E56-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>AND(NOT(ISBLANK($E56)),$E56&lt;=K$6,$F56&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="25" priority="34">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="24" priority="31">
+      <formula>AND($E57&lt;=K$6,ROUNDDOWN(($F57-$E57+1)*$H57,0)+$E57-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="32">
+      <formula>AND(NOT(ISBLANK($E57)),$E57&lt;=K$6,$F57&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="21" priority="27">
+      <formula>AND($E58&lt;=K$6,ROUNDDOWN(($F58-$E58+1)*$H58,0)+$E58-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>AND(NOT(ISBLANK($E58)),$E58&lt;=K$6,$F58&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="19" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>AND($E48&lt;=K$6,ROUNDDOWN(($F48-$E48+1)*$H48,0)+$E48-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>AND(NOT(ISBLANK($E48)),$E48&lt;=K$6,$F48&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7FBB6FE-BA0E-4654-AF75-3066A78597C2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A531131-3BAF-434A-98E3-97D43A6AF004}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03C043BC-4F45-4F98-AB70-AD766B883194}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E63&lt;=K$6,ROUNDDOWN(($F63-$E63+1)*$H63,0)+$E63-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E63)),$E63&lt;=K$6,$F63&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D1F4093C-EC04-4E99-A611-ADFB4B32685C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7636,8 +12297,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A36:B37 B31 B32:B34 B25:B28 B22 G13 G12 G16 G14 A39:B39 B38 E18 E24 E30 E36:H39 G15 G11 G10 G18:H18 G24:H24 G30:H34 H22 G40 G41:G42 G43 H20 H21 H25:H28" unlockedFormula="1"/>
-    <ignoredError sqref="A30 A24 A18" formula="1"/>
+    <ignoredError sqref="A67:B67 A69:B69 B68 E17 E24 E45 E66:H69 G17:H17 G24:H24 G60:H60 G70:G73 H19 H23 H26:H27 G45:H45 H46 H49 H59 A66" unlockedFormula="1"/>
+    <ignoredError sqref="A45 A24 A17" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -7685,7 +12346,652 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H43</xm:sqref>
+          <xm:sqref>H8:H27 H45:H46 H49 H59:H60 H66:H73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19772758-57CC-4273-B2B3-700037C98FB6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7F210AE7-485C-4878-B6B5-1C14062062D9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3855031C-E4B6-4857-8EA4-BBEAE594A845}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0E4D1D63-F40B-4426-8C23-6F9D20F0D420}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35:H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D8BF262-FD16-478A-B45E-75FE4CB26ADB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{878D46B9-CE66-4E59-98CD-09455C957827}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D43F2BA-8DBC-4741-ABE3-5128BEA6D052}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66EE9652-C6BF-4839-9BAD-1FFE67DC3A09}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7E5588A7-4223-40E3-AE4D-CCF9A58C931A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36:H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7AFCFE02-3703-4082-93E0-C73837FEB1D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97AEA868-4B1D-46A2-81BA-538238129B61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FC35556-EE01-45D3-9FDE-6624F97AFFD6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFD79F1A-6A80-404F-9EBE-3ACCEFFCB9C0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27467586-E645-42DB-B613-EBE83D5A8796}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE457347-C06F-4406-B7BC-6030D4866272}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF4886C9-7CC1-4A03-86A8-F3907ED29A84}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D23A73D3-4253-4127-9BC4-F740FB3F79FD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{323A8243-4660-4412-A54E-48F818E80BFA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8BE31D11-2B86-4A7E-A85F-E6E4C0BF3217}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B265865C-925A-487A-AE62-706D9F7619E9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B9622AB2-6F97-43ED-B611-A90F091C7B23}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{104DC174-08A1-4572-A1D1-BE7E04386608}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0C0D85A-C904-4F96-B751-13002123FD2E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A264A938-D271-4D2C-B33C-E71C835A62AE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A37BCBE7-C9B9-48AC-9032-C0B7A2D59B67}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{487A3F33-4ACD-4122-82E7-124557A09267}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A99C42F1-B3AB-4FAD-B005-675D07F4EA16}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CBE1236D-3521-4C25-9648-4263219204C8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EDCAC1BA-8630-4F0F-BD71-589184767450}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F375F170-1399-4B96-BBFA-4D799DC2B3B8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCCE1EA8-4A00-46E3-A2CC-5FB35DD3FC7D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{297D579B-10E7-4BAB-9454-A0D86A2FC4C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F07EDD46-367C-4401-BCB1-BB4A6DB5308A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A4B1CD6A-4237-4B5E-91EF-A48D094C7218}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E744311-1641-4AB7-9A22-87B0C6E3A0E3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F4F9F35-5861-40E1-9AB4-45DEA98A037F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC81BF4F-4CEF-479B-8148-1692EC3ED334}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2AFF8849-90F5-4A7B-8003-F234869F405A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{387BC0F4-135E-4008-B678-1090CEEF872F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7FBB6FE-BA0E-4654-AF75-3066A78597C2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A531131-3BAF-434A-98E3-97D43A6AF004}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03C043BC-4F45-4F98-AB70-AD766B883194}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D1F4093C-EC04-4E99-A611-ADFB4B32685C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7714,17 +13020,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,149 +13038,149 @@
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -7908,14 +13214,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
-        <v>53</v>
+      <c r="A2" s="136" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
@@ -7926,483 +13232,483 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
-        <v>94</v>
+      <c r="A4" s="131" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="138" t="s">
-        <v>83</v>
+      <c r="B5" s="137" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="138" t="s">
-        <v>95</v>
+      <c r="B7" s="137" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="137" t="s">
-        <v>65</v>
+      <c r="B9" s="136" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="136" t="s">
-        <v>66</v>
+      <c r="B11" s="135" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="172"/>
+      <c r="B13" s="174"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" s="133" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="139" t="s">
+    <row r="15" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="140"/>
+      <c r="B15" s="138" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="140"/>
+      <c r="B16" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="141"/>
+      <c r="B17" s="139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="141"/>
+      <c r="B18" s="139" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="41" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="132" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="140"/>
+      <c r="B20" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="141"/>
+      <c r="B21" s="139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="142"/>
+      <c r="B22" s="143" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="133" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="142"/>
-      <c r="B17" s="140" t="s">
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="142"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="174"/>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="142"/>
+      <c r="B25" s="139" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="142"/>
+      <c r="B26" s="139"/>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="142"/>
+      <c r="B27" s="160" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="142"/>
+      <c r="B28" s="139" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="142"/>
-      <c r="B18" s="140" t="s">
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="142"/>
+      <c r="B29" s="139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="142"/>
+      <c r="B30" s="139"/>
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="142"/>
+      <c r="B31" s="160" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="41" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
-      <c r="B19" s="140" t="s">
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="142"/>
+      <c r="B32" s="139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="142"/>
+      <c r="B33" s="139" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="133" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="142"/>
-      <c r="B21" s="140" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="144" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="172"/>
-    </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="143"/>
-      <c r="B25" s="140" t="s">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="142"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="142"/>
+      <c r="B35" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="142"/>
+      <c r="B36" s="145" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="143"/>
-      <c r="B26" s="140"/>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="143"/>
-      <c r="B27" s="161" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="143"/>
-      <c r="B28" s="140" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="143"/>
-      <c r="B29" s="140" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="143"/>
-      <c r="B30" s="140"/>
-    </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="143"/>
-      <c r="B31" s="161" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
-      <c r="B32" s="140" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="143"/>
-      <c r="B33" s="140" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="143"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="143"/>
-      <c r="B35" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="143"/>
-      <c r="B36" s="146" t="s">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="142"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="174"/>
+    </row>
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="139" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="143"/>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="172" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="172"/>
-    </row>
-    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B39" s="140" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B41" s="140" t="s">
-        <v>105</v>
+      <c r="B41" s="139" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:2" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="140" t="s">
-        <v>103</v>
+      <c r="B43" s="139" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="140" t="s">
-        <v>106</v>
+      <c r="B45" s="139" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
     <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B47" s="140" t="s">
-        <v>107</v>
+      <c r="B47" s="139" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="172"/>
+      <c r="B49" s="174"/>
     </row>
     <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="140" t="s">
-        <v>139</v>
+      <c r="B50" s="139" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
     </row>
     <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="147" t="s">
+      <c r="A52" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="140" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="146" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="147" t="s">
+      <c r="B54" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="140" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="135"/>
+      <c r="B55" s="139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="135"/>
+      <c r="B56" s="139" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="147" t="s">
+      <c r="B57" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="140" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="135"/>
+      <c r="B58" s="139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="135"/>
+      <c r="B59" s="139" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="146" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="140" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="140" t="s">
+      <c r="B60" s="139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="135"/>
+      <c r="B61" s="139" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="147" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="140" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="140" t="s">
+    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="146" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="140" t="s">
+      <c r="B62" s="139" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="147" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="136"/>
-      <c r="B61" s="140" t="s">
+    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="147"/>
+      <c r="B63" s="139" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="140" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="148"/>
-      <c r="B63" s="140" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="172" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="172"/>
+      <c r="A65" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="174"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B66" s="140" t="s">
-        <v>116</v>
+      <c r="B66" s="139" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="172"/>
+      <c r="B68" s="174"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="156" t="s">
+      <c r="B69" s="155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="148"/>
+      <c r="B70" s="153" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="148"/>
+      <c r="B71" s="149"/>
+    </row>
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="148"/>
+      <c r="B73" s="153" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="148"/>
+      <c r="B74" s="149"/>
+    </row>
+    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="157" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="148"/>
+      <c r="B76" s="137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="147"/>
+      <c r="B77" s="147"/>
+    </row>
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="157" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="148"/>
+      <c r="B79" s="137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="147"/>
+      <c r="B80" s="147"/>
+    </row>
+    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="148"/>
+      <c r="B82" s="152" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="148"/>
+      <c r="B83" s="152" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="148"/>
+      <c r="B84" s="152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="147"/>
+      <c r="B85" s="151"/>
+    </row>
+    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="157" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="148"/>
+      <c r="B87" s="137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="148"/>
+      <c r="B88" s="150" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="149"/>
-      <c r="B70" s="154" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="149"/>
-      <c r="B71" s="150"/>
-    </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="155" t="s">
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="148"/>
+      <c r="B89" s="156" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="147"/>
+      <c r="B90" s="147"/>
+    </row>
+    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="156" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="149"/>
-      <c r="B73" s="154" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="149"/>
-      <c r="B74" s="150"/>
-    </row>
-    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="158" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="149"/>
-      <c r="B76" s="138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="148"/>
-      <c r="B77" s="148"/>
-    </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="158" t="s">
+      <c r="B91" s="159" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="149"/>
-      <c r="B79" s="138" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="148"/>
-      <c r="B80" s="148"/>
-    </row>
-    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="158" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="149"/>
-      <c r="B82" s="153" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="149"/>
-      <c r="B83" s="153" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="149"/>
-      <c r="B84" s="153" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="148"/>
-      <c r="B85" s="152"/>
-    </row>
-    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="158" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="149"/>
-      <c r="B87" s="138" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="149"/>
-      <c r="B88" s="151" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="149"/>
-      <c r="B89" s="157" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="148"/>
-      <c r="B90" s="148"/>
-    </row>
-    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="160" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="136"/>
-      <c r="B92" s="153" t="s">
-        <v>25</v>
+      <c r="A92" s="135"/>
+      <c r="B92" s="152" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8445,7 +13751,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="44"/>
@@ -8460,14 +13766,14 @@
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="42"/>
       <c r="B3" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="15"/>
     </row>
@@ -8479,7 +13785,7 @@
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -8491,7 +13797,7 @@
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15"/>
     </row>
@@ -8503,7 +13809,7 @@
     <row r="10" spans="1:4" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15"/>
     </row>
@@ -8515,7 +13821,7 @@
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -8527,7 +13833,7 @@
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -8539,7 +13845,7 @@
     <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -8551,14 +13857,14 @@
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="15"/>
     </row>
